--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E8" s="3">
         <v>3100</v>
       </c>
       <c r="F8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2100</v>
       </c>
       <c r="P8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1123,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1105,19 +1158,25 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>2200</v>
       </c>
       <c r="E18" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F18" s="3">
         <v>2200</v>
       </c>
       <c r="G18" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H18" s="3">
         <v>2200</v>
       </c>
       <c r="I18" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J18" s="3">
         <v>2200</v>
       </c>
       <c r="K18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1900</v>
       </c>
       <c r="P18" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1242,32 +1315,38 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>600</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>700</v>
       </c>
       <c r="L21" s="3">
+        <v>600</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>700</v>
+      </c>
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>700</v>
       </c>
       <c r="J23" s="3">
         <v>500</v>
       </c>
       <c r="K23" s="3">
+        <v>700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>500</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>500</v>
       </c>
       <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
-        <v>400</v>
-      </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O26" s="3">
         <v>400</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>500</v>
       </c>
       <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
-        <v>400</v>
-      </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O27" s="3">
         <v>400</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>500</v>
       </c>
       <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
-        <v>400</v>
-      </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O33" s="3">
         <v>400</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>500</v>
       </c>
       <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
-        <v>400</v>
-      </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O35" s="3">
         <v>400</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F42" s="3">
         <v>10100</v>
-      </c>
-      <c r="E42" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>11900</v>
       </c>
       <c r="G42" s="3">
         <v>7500</v>
       </c>
       <c r="H42" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J42" s="3">
         <v>5700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>55900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,22 +2484,28 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6700</v>
       </c>
       <c r="F48" s="3">
         <v>6600</v>
       </c>
       <c r="G48" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H48" s="3">
         <v>6600</v>
@@ -2299,28 +2514,34 @@
         <v>6600</v>
       </c>
       <c r="J48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L48" s="3">
         <v>6700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6800</v>
       </c>
       <c r="N48" s="3">
         <v>6800</v>
       </c>
       <c r="O48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,10 +2549,10 @@
         <v>800</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2346,10 +2567,10 @@
         <v>900</v>
       </c>
       <c r="K49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M49" s="3">
         <v>1000</v>
@@ -2361,10 +2582,16 @@
         <v>1000</v>
       </c>
       <c r="P49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
       </c>
       <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>304200</v>
+      </c>
+      <c r="F54" s="3">
         <v>301600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>289500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>292800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>277700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>273800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>268000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>255400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>245700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>239000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>236400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>230200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>276100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>253900</v>
+      </c>
+      <c r="F66" s="3">
         <v>251000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>236600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>240000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>225100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>221400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>215500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>202300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>191700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>185400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>183300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>177400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>243700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F72" s="3">
         <v>18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>19100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>18900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>18500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>18000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>17800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>18300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>18000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>17700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>17500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>17200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F76" s="3">
         <v>50600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>52900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>52600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>52500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>52500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>53100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>54000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>53700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>53100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>52700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>32400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>500</v>
       </c>
       <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
-        <v>400</v>
-      </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O81" s="3">
         <v>400</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,11 +4045,11 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3912,32 +4345,38 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3974,11 +4415,11 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4106,32 +4565,38 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>45300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-57500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4172,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-100</v>
@@ -4184,16 +4651,22 @@
         <v>-100</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4344,32 +4835,38 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>12100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-46300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>59600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4432,28 +4935,34 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3100</v>
       </c>
       <c r="F8" s="3">
         <v>3100</v>
@@ -756,31 +760,31 @@
         <v>3100</v>
       </c>
       <c r="H8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I8" s="3">
         <v>3000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2800</v>
       </c>
       <c r="J8" s="3">
         <v>2800</v>
       </c>
       <c r="K8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L8" s="3">
         <v>2600</v>
       </c>
       <c r="M8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="N8" s="3">
         <v>2400</v>
       </c>
       <c r="O8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P8" s="3">
         <v>2300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2100</v>
       </c>
       <c r="Q8" s="3">
         <v>2100</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,63 +1151,67 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
       </c>
       <c r="G17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
         <v>2200</v>
@@ -1190,10 +1220,10 @@
         <v>2200</v>
       </c>
       <c r="G18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H18" s="3">
         <v>2300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2200</v>
       </c>
       <c r="I18" s="3">
         <v>2200</v>
@@ -1202,31 +1232,34 @@
         <v>2200</v>
       </c>
       <c r="K18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2000</v>
       </c>
       <c r="O18" s="3">
         <v>2000</v>
       </c>
       <c r="P18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1500</v>
       </c>
       <c r="P20" s="3">
         <v>-1500</v>
       </c>
       <c r="Q20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="R20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1321,32 +1358,35 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>700</v>
       </c>
       <c r="N21" s="3">
         <v>700</v>
       </c>
       <c r="O21" s="3">
+        <v>700</v>
+      </c>
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,72 +1435,78 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>600</v>
       </c>
       <c r="G23" s="3">
         <v>600</v>
       </c>
       <c r="H23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I23" s="3">
         <v>800</v>
       </c>
       <c r="J23" s="3">
+        <v>800</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>600</v>
       </c>
       <c r="N23" s="3">
         <v>600</v>
       </c>
       <c r="O23" s="3">
+        <v>600</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>600</v>
       </c>
       <c r="R23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
@@ -1469,16 +1515,16 @@
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
@@ -1487,16 +1533,19 @@
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>400</v>
       </c>
       <c r="G26" s="3">
         <v>400</v>
       </c>
       <c r="H26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I26" s="3">
         <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>600</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>500</v>
       </c>
       <c r="N26" s="3">
         <v>500</v>
       </c>
       <c r="O26" s="3">
+        <v>500</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>400</v>
       </c>
       <c r="R26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>400</v>
       </c>
       <c r="G27" s="3">
         <v>400</v>
       </c>
       <c r="H27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I27" s="3">
         <v>600</v>
       </c>
       <c r="J27" s="3">
+        <v>600</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>500</v>
       </c>
       <c r="N27" s="3">
         <v>500</v>
       </c>
       <c r="O27" s="3">
+        <v>500</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>400</v>
       </c>
       <c r="R27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
         <v>1400</v>
       </c>
       <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1500</v>
       </c>
       <c r="P32" s="3">
         <v>1500</v>
       </c>
       <c r="Q32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="R32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>400</v>
       </c>
       <c r="G33" s="3">
         <v>400</v>
       </c>
       <c r="H33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I33" s="3">
         <v>600</v>
       </c>
       <c r="J33" s="3">
+        <v>600</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>500</v>
       </c>
       <c r="N33" s="3">
         <v>500</v>
       </c>
       <c r="O33" s="3">
+        <v>500</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>400</v>
       </c>
       <c r="R33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>400</v>
       </c>
       <c r="G35" s="3">
         <v>400</v>
       </c>
       <c r="H35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I35" s="3">
         <v>600</v>
       </c>
       <c r="J35" s="3">
+        <v>600</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>500</v>
       </c>
       <c r="N35" s="3">
         <v>500</v>
       </c>
       <c r="O35" s="3">
+        <v>500</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>400</v>
       </c>
       <c r="R35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4500</v>
       </c>
       <c r="G41" s="3">
         <v>4500</v>
       </c>
       <c r="H41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E42" s="3">
         <v>8200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>11900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>55900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,25 +2595,28 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6600</v>
       </c>
       <c r="F48" s="3">
         <v>6600</v>
       </c>
       <c r="G48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H48" s="3">
         <v>6700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6600</v>
       </c>
       <c r="I48" s="3">
         <v>6600</v>
@@ -2520,13 +2628,13 @@
         <v>6600</v>
       </c>
       <c r="L48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="M48" s="3">
         <v>6700</v>
       </c>
       <c r="N48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="O48" s="3">
         <v>6800</v>
@@ -2535,13 +2643,16 @@
         <v>6800</v>
       </c>
       <c r="Q48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="R48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,7 +2666,7 @@
         <v>800</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H49" s="3">
         <v>900</v>
@@ -2573,7 +2684,7 @@
         <v>900</v>
       </c>
       <c r="M49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N49" s="3">
         <v>1000</v>
@@ -2588,10 +2699,13 @@
         <v>1000</v>
       </c>
       <c r="R49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,16 +2807,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1800</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
@@ -2708,40 +2828,43 @@
         <v>1800</v>
       </c>
       <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1900</v>
       </c>
       <c r="L52" s="3">
         <v>1900</v>
       </c>
       <c r="M52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>307100</v>
+      </c>
+      <c r="E54" s="3">
         <v>300500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>304200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>301600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>289500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>292800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>277700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>273800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>268000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>255400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>245700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>239000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>236400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>230200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>276100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E66" s="3">
         <v>249800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>253900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>251000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>236600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>240000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>225100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>221400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>215500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>202300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>191700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>185400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>183300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>177400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>243700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E72" s="3">
         <v>18900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E76" s="3">
         <v>50700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>52500</v>
       </c>
       <c r="K76" s="3">
         <v>52500</v>
       </c>
       <c r="L76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="M76" s="3">
         <v>53100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>400</v>
       </c>
       <c r="G81" s="3">
         <v>400</v>
       </c>
       <c r="H81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>600</v>
       </c>
       <c r="J81" s="3">
+        <v>600</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>500</v>
       </c>
       <c r="N81" s="3">
         <v>500</v>
       </c>
       <c r="O81" s="3">
+        <v>500</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>400</v>
       </c>
       <c r="R81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,34 +4223,35 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,34 +4615,35 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-13700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>45300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4645,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-100</v>
@@ -4657,7 +4891,7 @@
         <v>-100</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>12100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>59600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3100</v>
       </c>
       <c r="G8" s="3">
         <v>3100</v>
@@ -763,31 +767,31 @@
         <v>3100</v>
       </c>
       <c r="I8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J8" s="3">
         <v>3000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2800</v>
       </c>
       <c r="K8" s="3">
         <v>2800</v>
       </c>
       <c r="L8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M8" s="3">
         <v>2600</v>
       </c>
       <c r="N8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="O8" s="3">
         <v>2400</v>
       </c>
       <c r="P8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2100</v>
       </c>
       <c r="R8" s="3">
         <v>2100</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,69 +1178,73 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2200</v>
       </c>
       <c r="F18" s="3">
         <v>2200</v>
@@ -1223,10 +1253,10 @@
         <v>2200</v>
       </c>
       <c r="H18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I18" s="3">
         <v>2300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2200</v>
       </c>
       <c r="J18" s="3">
         <v>2200</v>
@@ -1235,31 +1265,34 @@
         <v>2200</v>
       </c>
       <c r="L18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2000</v>
       </c>
       <c r="P18" s="3">
         <v>2000</v>
       </c>
       <c r="Q18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1400</v>
       </c>
       <c r="F20" s="3">
         <v>-1400</v>
       </c>
       <c r="G20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q20" s="3">
         <v>-1500</v>
       </c>
       <c r="R20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="S20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,32 +1398,35 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>700</v>
       </c>
       <c r="O21" s="3">
         <v>700</v>
       </c>
       <c r="P21" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,78 +1478,84 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>600</v>
       </c>
       <c r="H23" s="3">
         <v>600</v>
       </c>
       <c r="I23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J23" s="3">
         <v>800</v>
       </c>
       <c r="K23" s="3">
+        <v>800</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>600</v>
       </c>
       <c r="O23" s="3">
         <v>600</v>
       </c>
       <c r="P23" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>600</v>
       </c>
       <c r="S23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1518,16 +1564,16 @@
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
@@ -1536,16 +1582,19 @@
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>400</v>
       </c>
       <c r="H26" s="3">
         <v>400</v>
       </c>
       <c r="I26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J26" s="3">
         <v>600</v>
       </c>
       <c r="K26" s="3">
+        <v>600</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>500</v>
       </c>
       <c r="O26" s="3">
         <v>500</v>
       </c>
       <c r="P26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>400</v>
       </c>
       <c r="S26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>400</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
       </c>
       <c r="I27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J27" s="3">
         <v>600</v>
       </c>
       <c r="K27" s="3">
+        <v>600</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>500</v>
       </c>
       <c r="O27" s="3">
         <v>500</v>
       </c>
       <c r="P27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>400</v>
       </c>
       <c r="S27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1400</v>
       </c>
       <c r="F32" s="3">
         <v>1400</v>
       </c>
       <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1500</v>
       </c>
       <c r="Q32" s="3">
         <v>1500</v>
       </c>
       <c r="R32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="S32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>400</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
       </c>
       <c r="I33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J33" s="3">
         <v>600</v>
       </c>
       <c r="K33" s="3">
+        <v>600</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>500</v>
       </c>
       <c r="O33" s="3">
         <v>500</v>
       </c>
       <c r="P33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>400</v>
       </c>
       <c r="S33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>400</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
       </c>
       <c r="I35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J35" s="3">
         <v>600</v>
       </c>
       <c r="K35" s="3">
+        <v>600</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>500</v>
       </c>
       <c r="O35" s="3">
         <v>500</v>
       </c>
       <c r="P35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>400</v>
       </c>
       <c r="S35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E41" s="3">
         <v>10700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>4500</v>
       </c>
       <c r="H41" s="3">
         <v>4500</v>
       </c>
       <c r="I41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E42" s="3">
         <v>7100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>11900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>55900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,19 +2715,19 @@
         <v>6400</v>
       </c>
       <c r="E48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F48" s="3">
         <v>6500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6600</v>
       </c>
       <c r="G48" s="3">
         <v>6600</v>
       </c>
       <c r="H48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I48" s="3">
         <v>6700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6600</v>
       </c>
       <c r="J48" s="3">
         <v>6600</v>
@@ -2631,13 +2739,13 @@
         <v>6600</v>
       </c>
       <c r="M48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="N48" s="3">
         <v>6700</v>
       </c>
       <c r="O48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="P48" s="3">
         <v>6800</v>
@@ -2646,13 +2754,16 @@
         <v>6800</v>
       </c>
       <c r="R48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="S48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2669,7 +2780,7 @@
         <v>800</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
@@ -2687,7 +2798,7 @@
         <v>900</v>
       </c>
       <c r="N49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O49" s="3">
         <v>1000</v>
@@ -2702,10 +2813,13 @@
         <v>1000</v>
       </c>
       <c r="S49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1800</v>
       </c>
       <c r="G52" s="3">
         <v>1800</v>
@@ -2831,40 +2951,43 @@
         <v>1800</v>
       </c>
       <c r="I52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1900</v>
       </c>
       <c r="M52" s="3">
         <v>1900</v>
       </c>
       <c r="N52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E54" s="3">
         <v>307100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>304200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>301600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>289500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>292800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>277700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>273800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>268000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>255400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>245700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>239000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>236400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>230200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>276100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,7 +3151,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>262600</v>
+      </c>
+      <c r="E66" s="3">
         <v>258300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>249800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>253900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>251000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>236600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>240000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>225100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>221400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>215500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>202300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>191700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>185400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>183300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>177400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>243700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E72" s="3">
         <v>17800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E76" s="3">
         <v>48800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>52500</v>
       </c>
       <c r="L76" s="3">
         <v>52500</v>
       </c>
       <c r="M76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="N76" s="3">
         <v>53100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>400</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>
       </c>
       <c r="I81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J81" s="3">
         <v>600</v>
       </c>
       <c r="K81" s="3">
+        <v>600</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>500</v>
       </c>
       <c r="O81" s="3">
         <v>500</v>
       </c>
       <c r="P81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>400</v>
       </c>
       <c r="S81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4250,11 +4449,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4568,35 +4785,38 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4642,11 +4863,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4801,35 +5031,38 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-13700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>45300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4882,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-100</v>
@@ -4894,7 +5128,7 @@
         <v>-100</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5087,35 +5333,38 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>12100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-46300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>59600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5193,31 +5445,34 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3100</v>
       </c>
       <c r="H8" s="3">
         <v>3100</v>
@@ -770,31 +774,31 @@
         <v>3100</v>
       </c>
       <c r="J8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2800</v>
       </c>
       <c r="L8" s="3">
         <v>2800</v>
       </c>
       <c r="M8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N8" s="3">
         <v>2600</v>
       </c>
       <c r="O8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="P8" s="3">
         <v>2400</v>
       </c>
       <c r="Q8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R8" s="3">
         <v>2300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2100</v>
       </c>
       <c r="S8" s="3">
         <v>2100</v>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,75 +1205,79 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>900</v>
       </c>
       <c r="I17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2200</v>
       </c>
       <c r="G18" s="3">
         <v>2200</v>
@@ -1256,10 +1286,10 @@
         <v>2200</v>
       </c>
       <c r="I18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J18" s="3">
         <v>2300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2200</v>
       </c>
       <c r="K18" s="3">
         <v>2200</v>
@@ -1268,31 +1298,34 @@
         <v>2200</v>
       </c>
       <c r="M18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2000</v>
       </c>
       <c r="Q18" s="3">
         <v>2000</v>
       </c>
       <c r="R18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1500</v>
       </c>
       <c r="R20" s="3">
         <v>-1500</v>
       </c>
       <c r="S20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="T20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,32 +1438,35 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>700</v>
       </c>
       <c r="P21" s="3">
         <v>700</v>
       </c>
       <c r="Q21" s="3">
+        <v>700</v>
+      </c>
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,55 +1533,58 @@
         <v>1100</v>
       </c>
       <c r="E23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>600</v>
       </c>
       <c r="I23" s="3">
         <v>600</v>
       </c>
       <c r="J23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
       </c>
       <c r="L23" s="3">
+        <v>800</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>600</v>
       </c>
       <c r="P23" s="3">
         <v>600</v>
       </c>
       <c r="Q23" s="3">
+        <v>600</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>600</v>
       </c>
       <c r="T23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,19 +1592,19 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
@@ -1567,16 +1613,16 @@
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
@@ -1585,16 +1631,19 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,55 +1710,58 @@
         <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>400</v>
       </c>
       <c r="I26" s="3">
         <v>400</v>
       </c>
       <c r="J26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
       </c>
       <c r="L26" s="3">
+        <v>600</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>500</v>
       </c>
       <c r="P26" s="3">
         <v>500</v>
       </c>
       <c r="Q26" s="3">
+        <v>500</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>400</v>
       </c>
       <c r="T26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1769,58 @@
         <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>400</v>
       </c>
       <c r="I27" s="3">
         <v>400</v>
       </c>
       <c r="J27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K27" s="3">
         <v>600</v>
       </c>
       <c r="L27" s="3">
+        <v>600</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>500</v>
       </c>
       <c r="P27" s="3">
         <v>500</v>
       </c>
       <c r="Q27" s="3">
+        <v>500</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>400</v>
       </c>
       <c r="T27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,64 +2052,70 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
       </c>
       <c r="H32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1500</v>
       </c>
       <c r="R32" s="3">
         <v>1500</v>
       </c>
       <c r="S32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2123,58 @@
         <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>400</v>
       </c>
       <c r="I33" s="3">
         <v>400</v>
       </c>
       <c r="J33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K33" s="3">
         <v>600</v>
       </c>
       <c r="L33" s="3">
+        <v>600</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>500</v>
       </c>
       <c r="P33" s="3">
         <v>500</v>
       </c>
       <c r="Q33" s="3">
+        <v>500</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>400</v>
       </c>
       <c r="T33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2241,122 @@
         <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>400</v>
       </c>
       <c r="I35" s="3">
         <v>400</v>
       </c>
       <c r="J35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K35" s="3">
         <v>600</v>
       </c>
       <c r="L35" s="3">
+        <v>600</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>500</v>
       </c>
       <c r="P35" s="3">
         <v>500</v>
       </c>
       <c r="Q35" s="3">
+        <v>500</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>400</v>
       </c>
       <c r="T35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2400,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4500</v>
       </c>
       <c r="I41" s="3">
         <v>4500</v>
       </c>
       <c r="J41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
         <v>8600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>11900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>55900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,19 +2826,19 @@
         <v>6400</v>
       </c>
       <c r="F48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G48" s="3">
         <v>6500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6600</v>
       </c>
       <c r="H48" s="3">
         <v>6600</v>
       </c>
       <c r="I48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J48" s="3">
         <v>6700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6600</v>
       </c>
       <c r="K48" s="3">
         <v>6600</v>
@@ -2742,13 +2850,13 @@
         <v>6600</v>
       </c>
       <c r="N48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="O48" s="3">
         <v>6700</v>
       </c>
       <c r="P48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="Q48" s="3">
         <v>6800</v>
@@ -2757,13 +2865,16 @@
         <v>6800</v>
       </c>
       <c r="S48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="T48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2783,7 +2894,7 @@
         <v>800</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
@@ -2801,7 +2912,7 @@
         <v>900</v>
       </c>
       <c r="O49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P49" s="3">
         <v>1000</v>
@@ -2816,10 +2927,13 @@
         <v>1000</v>
       </c>
       <c r="T49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3047,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1800</v>
       </c>
       <c r="H52" s="3">
         <v>1800</v>
@@ -2954,40 +3074,43 @@
         <v>1800</v>
       </c>
       <c r="J52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1900</v>
       </c>
       <c r="N52" s="3">
         <v>1900</v>
       </c>
       <c r="O52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>310600</v>
+      </c>
+      <c r="E54" s="3">
         <v>312200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>307100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>304200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>301600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>289500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>292800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>273800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>268000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>255400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>245700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>239000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>236400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>230200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>276100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,7 +3285,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>261700</v>
+      </c>
+      <c r="E66" s="3">
         <v>262600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>258300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>249800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>253900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>251000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>236600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>240000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>225100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>221400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>215500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>202300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>191700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>185400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>183300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>177400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>243700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>18300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E76" s="3">
         <v>49600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>52500</v>
       </c>
       <c r="M76" s="3">
         <v>52500</v>
       </c>
       <c r="N76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="O76" s="3">
         <v>53100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>53100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +4549,58 @@
         <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>400</v>
       </c>
       <c r="J81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K81" s="3">
         <v>600</v>
       </c>
       <c r="L81" s="3">
+        <v>600</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>500</v>
       </c>
       <c r="P81" s="3">
         <v>500</v>
       </c>
       <c r="Q81" s="3">
+        <v>500</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>400</v>
       </c>
       <c r="T81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4452,11 +4651,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4788,35 +5005,38 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4866,11 +5087,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5034,35 +5264,38 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-13700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>45300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5119,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-100</v>
@@ -5131,7 +5365,7 @@
         <v>-100</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5336,35 +5582,38 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>12100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-46300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>59600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5448,31 +5700,34 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,113 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3100</v>
       </c>
       <c r="I8" s="3">
         <v>3100</v>
@@ -777,31 +780,31 @@
         <v>3100</v>
       </c>
       <c r="K8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L8" s="3">
         <v>3000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2800</v>
       </c>
       <c r="M8" s="3">
         <v>2800</v>
       </c>
       <c r="N8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="O8" s="3">
         <v>2600</v>
       </c>
       <c r="P8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="Q8" s="3">
         <v>2400</v>
       </c>
       <c r="R8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S8" s="3">
         <v>2300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2100</v>
       </c>
       <c r="T8" s="3">
         <v>2100</v>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,81 +1231,85 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>900</v>
       </c>
       <c r="I17" s="3">
         <v>900</v>
       </c>
       <c r="J17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2200</v>
       </c>
       <c r="H18" s="3">
         <v>2200</v>
@@ -1289,10 +1318,10 @@
         <v>2200</v>
       </c>
       <c r="J18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2200</v>
       </c>
       <c r="L18" s="3">
         <v>2200</v>
@@ -1301,31 +1330,34 @@
         <v>2200</v>
       </c>
       <c r="N18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2000</v>
       </c>
       <c r="R18" s="3">
         <v>2000</v>
       </c>
       <c r="S18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
       </c>
       <c r="H20" s="3">
         <v>-1400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1500</v>
       </c>
       <c r="S20" s="3">
         <v>-1500</v>
       </c>
       <c r="T20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="U20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1441,32 +1477,35 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>700</v>
       </c>
       <c r="Q21" s="3">
         <v>700</v>
       </c>
       <c r="R21" s="3">
+        <v>700</v>
+      </c>
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,90 +1563,96 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <v>1100</v>
       </c>
       <c r="F23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>600</v>
       </c>
       <c r="J23" s="3">
         <v>600</v>
       </c>
       <c r="K23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L23" s="3">
         <v>800</v>
       </c>
       <c r="M23" s="3">
+        <v>800</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>600</v>
       </c>
       <c r="Q23" s="3">
         <v>600</v>
       </c>
       <c r="R23" s="3">
+        <v>600</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>600</v>
       </c>
       <c r="U23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1616,16 +1661,16 @@
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
@@ -1634,16 +1679,19 @@
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1713,55 +1764,58 @@
         <v>800</v>
       </c>
       <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>400</v>
       </c>
       <c r="J26" s="3">
         <v>400</v>
       </c>
       <c r="K26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L26" s="3">
         <v>600</v>
       </c>
       <c r="M26" s="3">
+        <v>600</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>500</v>
       </c>
       <c r="Q26" s="3">
         <v>500</v>
       </c>
       <c r="R26" s="3">
+        <v>500</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
-      </c>
-      <c r="T26" s="3">
-        <v>400</v>
       </c>
       <c r="U26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1772,55 +1826,58 @@
         <v>800</v>
       </c>
       <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>400</v>
       </c>
       <c r="J27" s="3">
         <v>400</v>
       </c>
       <c r="K27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L27" s="3">
         <v>600</v>
       </c>
       <c r="M27" s="3">
+        <v>600</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>500</v>
       </c>
       <c r="Q27" s="3">
         <v>500</v>
       </c>
       <c r="R27" s="3">
+        <v>500</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
-      </c>
-      <c r="T27" s="3">
-        <v>400</v>
       </c>
       <c r="U27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,67 +2121,73 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1400</v>
       </c>
       <c r="H32" s="3">
         <v>1400</v>
       </c>
       <c r="I32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1500</v>
       </c>
       <c r="S32" s="3">
         <v>1500</v>
       </c>
       <c r="T32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2126,55 +2198,58 @@
         <v>800</v>
       </c>
       <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>400</v>
       </c>
       <c r="J33" s="3">
         <v>400</v>
       </c>
       <c r="K33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L33" s="3">
         <v>600</v>
       </c>
       <c r="M33" s="3">
+        <v>600</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>500</v>
       </c>
       <c r="Q33" s="3">
         <v>500</v>
       </c>
       <c r="R33" s="3">
+        <v>500</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>400</v>
       </c>
       <c r="U33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2244,119 +2322,125 @@
         <v>800</v>
       </c>
       <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>400</v>
       </c>
       <c r="J35" s="3">
         <v>400</v>
       </c>
       <c r="K35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L35" s="3">
         <v>600</v>
       </c>
       <c r="M35" s="3">
+        <v>600</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>500</v>
       </c>
       <c r="Q35" s="3">
         <v>500</v>
       </c>
       <c r="R35" s="3">
+        <v>500</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>400</v>
       </c>
       <c r="U35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4500</v>
       </c>
       <c r="J41" s="3">
         <v>4500</v>
       </c>
       <c r="K41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>55900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
         <v>6400</v>
@@ -2829,19 +2936,19 @@
         <v>6400</v>
       </c>
       <c r="G48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H48" s="3">
         <v>6500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6600</v>
       </c>
       <c r="I48" s="3">
         <v>6600</v>
       </c>
       <c r="J48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6600</v>
       </c>
       <c r="L48" s="3">
         <v>6600</v>
@@ -2853,13 +2960,13 @@
         <v>6600</v>
       </c>
       <c r="O48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="P48" s="3">
         <v>6700</v>
       </c>
       <c r="Q48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="R48" s="3">
         <v>6800</v>
@@ -2868,13 +2975,16 @@
         <v>6800</v>
       </c>
       <c r="T48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="U48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2897,7 +3007,7 @@
         <v>800</v>
       </c>
       <c r="J49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
@@ -2915,7 +3025,7 @@
         <v>900</v>
       </c>
       <c r="P49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q49" s="3">
         <v>1000</v>
@@ -2930,10 +3040,13 @@
         <v>1000</v>
       </c>
       <c r="U49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,16 +3178,16 @@
         <v>1600</v>
       </c>
       <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1800</v>
       </c>
       <c r="I52" s="3">
         <v>1800</v>
@@ -3077,40 +3196,43 @@
         <v>1800</v>
       </c>
       <c r="K52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1900</v>
       </c>
       <c r="O52" s="3">
         <v>1900</v>
       </c>
       <c r="P52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E54" s="3">
         <v>310600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>312200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>307100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>304200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>301600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>289500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>292800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>273800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>268000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>255400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>245700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>239000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>236400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>230200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>276100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3288,7 +3418,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E66" s="3">
         <v>261700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>262600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>258300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>249800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>253900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>251000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>236600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>240000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>225100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>221400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>215500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>202300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>191700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>185400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>183300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>177400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>243700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E72" s="3">
         <v>18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E76" s="3">
         <v>48900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>52500</v>
       </c>
       <c r="N76" s="3">
         <v>52500</v>
       </c>
       <c r="O76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="P76" s="3">
         <v>53100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>53700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4552,55 +4746,58 @@
         <v>800</v>
       </c>
       <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>400</v>
       </c>
       <c r="J81" s="3">
         <v>400</v>
       </c>
       <c r="K81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L81" s="3">
         <v>600</v>
       </c>
       <c r="M81" s="3">
+        <v>600</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>500</v>
       </c>
       <c r="Q81" s="3">
         <v>500</v>
       </c>
       <c r="R81" s="3">
+        <v>500</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>400</v>
       </c>
       <c r="U81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4654,11 +4852,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5008,35 +5224,38 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5090,11 +5310,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5267,35 +5496,38 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-13700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>45300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-57500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5356,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-100</v>
@@ -5368,7 +5601,7 @@
         <v>-100</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5585,35 +5830,38 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>12100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-46300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>59600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5703,31 +5954,34 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3100</v>
       </c>
       <c r="J8" s="3">
         <v>3100</v>
@@ -783,31 +787,31 @@
         <v>3100</v>
       </c>
       <c r="L8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M8" s="3">
         <v>3000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2800</v>
       </c>
       <c r="N8" s="3">
         <v>2800</v>
       </c>
       <c r="O8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="P8" s="3">
         <v>2600</v>
       </c>
       <c r="Q8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="R8" s="3">
         <v>2400</v>
       </c>
       <c r="S8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T8" s="3">
         <v>2300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2100</v>
       </c>
       <c r="U8" s="3">
         <v>2100</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,78 +1268,81 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>900</v>
       </c>
       <c r="K17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2200</v>
       </c>
       <c r="I18" s="3">
         <v>2200</v>
@@ -1321,10 +1351,10 @@
         <v>2200</v>
       </c>
       <c r="K18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L18" s="3">
         <v>2300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2200</v>
       </c>
       <c r="M18" s="3">
         <v>2200</v>
@@ -1333,31 +1363,34 @@
         <v>2200</v>
       </c>
       <c r="O18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2000</v>
       </c>
       <c r="S18" s="3">
         <v>2000</v>
       </c>
       <c r="T18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1400</v>
       </c>
       <c r="I20" s="3">
         <v>-1400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1500</v>
       </c>
       <c r="T20" s="3">
         <v>-1500</v>
       </c>
       <c r="U20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="V20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1480,32 +1517,35 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>700</v>
       </c>
       <c r="R21" s="3">
         <v>700</v>
       </c>
       <c r="S21" s="3">
+        <v>700</v>
+      </c>
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,96 +1606,102 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1100</v>
       </c>
       <c r="F23" s="3">
         <v>1100</v>
       </c>
       <c r="G23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>600</v>
       </c>
       <c r="K23" s="3">
         <v>600</v>
       </c>
       <c r="L23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M23" s="3">
         <v>800</v>
       </c>
       <c r="N23" s="3">
+        <v>800</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>600</v>
       </c>
       <c r="R23" s="3">
         <v>600</v>
       </c>
       <c r="S23" s="3">
+        <v>600</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>600</v>
       </c>
       <c r="V23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
@@ -1664,16 +1710,16 @@
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
@@ -1682,16 +1728,19 @@
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,13 +1801,16 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
         <v>800</v>
@@ -1767,60 +1819,63 @@
         <v>800</v>
       </c>
       <c r="G26" s="3">
+        <v>800</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>400</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
       </c>
       <c r="L26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M26" s="3">
         <v>600</v>
       </c>
       <c r="N26" s="3">
+        <v>600</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>500</v>
       </c>
       <c r="R26" s="3">
         <v>500</v>
       </c>
       <c r="S26" s="3">
+        <v>500</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>400</v>
       </c>
       <c r="V26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
         <v>800</v>
@@ -1829,55 +1884,58 @@
         <v>800</v>
       </c>
       <c r="G27" s="3">
+        <v>800</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>400</v>
       </c>
       <c r="K27" s="3">
         <v>400</v>
       </c>
       <c r="L27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M27" s="3">
         <v>600</v>
       </c>
       <c r="N27" s="3">
+        <v>600</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>500</v>
       </c>
       <c r="R27" s="3">
         <v>500</v>
       </c>
       <c r="S27" s="3">
+        <v>500</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>400</v>
       </c>
       <c r="V27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,75 +2191,81 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1400</v>
       </c>
       <c r="I32" s="3">
         <v>1400</v>
       </c>
       <c r="J32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1500</v>
       </c>
       <c r="T32" s="3">
         <v>1500</v>
       </c>
       <c r="U32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="V32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
         <v>800</v>
@@ -2201,55 +2274,58 @@
         <v>800</v>
       </c>
       <c r="G33" s="3">
+        <v>800</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>400</v>
       </c>
       <c r="K33" s="3">
         <v>400</v>
       </c>
       <c r="L33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M33" s="3">
         <v>600</v>
       </c>
       <c r="N33" s="3">
+        <v>600</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>500</v>
       </c>
       <c r="R33" s="3">
         <v>500</v>
       </c>
       <c r="S33" s="3">
+        <v>500</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>400</v>
       </c>
       <c r="V33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,13 +2386,16 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
         <v>800</v>
@@ -2325,122 +2404,128 @@
         <v>800</v>
       </c>
       <c r="G35" s="3">
+        <v>800</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>400</v>
       </c>
       <c r="K35" s="3">
         <v>400</v>
       </c>
       <c r="L35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M35" s="3">
         <v>600</v>
       </c>
       <c r="N35" s="3">
+        <v>600</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>500</v>
       </c>
       <c r="R35" s="3">
         <v>500</v>
       </c>
       <c r="S35" s="3">
+        <v>500</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>400</v>
       </c>
       <c r="V35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
         <v>7800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>4500</v>
       </c>
       <c r="K41" s="3">
         <v>4500</v>
       </c>
       <c r="L41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E42" s="3">
         <v>9300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>55900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +3038,7 @@
         <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F48" s="3">
         <v>6400</v>
@@ -2939,19 +3047,19 @@
         <v>6400</v>
       </c>
       <c r="H48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I48" s="3">
         <v>6500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6600</v>
       </c>
       <c r="J48" s="3">
         <v>6600</v>
       </c>
       <c r="K48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L48" s="3">
         <v>6700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6600</v>
       </c>
       <c r="M48" s="3">
         <v>6600</v>
@@ -2963,13 +3071,13 @@
         <v>6600</v>
       </c>
       <c r="P48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="Q48" s="3">
         <v>6700</v>
       </c>
       <c r="R48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="S48" s="3">
         <v>6800</v>
@@ -2978,13 +3086,16 @@
         <v>6800</v>
       </c>
       <c r="U48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="V48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3010,7 +3121,7 @@
         <v>800</v>
       </c>
       <c r="K49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L49" s="3">
         <v>900</v>
@@ -3028,7 +3139,7 @@
         <v>900</v>
       </c>
       <c r="Q49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R49" s="3">
         <v>1000</v>
@@ -3043,10 +3154,13 @@
         <v>1000</v>
       </c>
       <c r="V49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,28 +3286,31 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
         <v>1600</v>
       </c>
       <c r="F52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>1800</v>
@@ -3199,40 +3319,43 @@
         <v>1800</v>
       </c>
       <c r="L52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1900</v>
       </c>
       <c r="P52" s="3">
         <v>1900</v>
       </c>
       <c r="Q52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E54" s="3">
         <v>307600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>310600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>312200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>307100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>304200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>301600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>289500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>292800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>277700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>273800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>268000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>255400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>245700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>239000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>236400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>230200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>276100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3421,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E66" s="3">
         <v>258400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>261700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>262600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>258300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>249800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>253900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>251000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>236600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>240000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>225100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>221400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>215500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>202300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>191700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>185400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>183300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>177400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>243700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E76" s="3">
         <v>49200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>52500</v>
       </c>
       <c r="O76" s="3">
         <v>52500</v>
       </c>
       <c r="P76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>53100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,80 +4856,86 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E81" s="3">
         <v>800</v>
@@ -4749,55 +4944,58 @@
         <v>800</v>
       </c>
       <c r="G81" s="3">
+        <v>800</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>400</v>
       </c>
       <c r="K81" s="3">
         <v>400</v>
       </c>
       <c r="L81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M81" s="3">
         <v>600</v>
       </c>
       <c r="N81" s="3">
+        <v>600</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>500</v>
       </c>
       <c r="R81" s="3">
         <v>500</v>
       </c>
       <c r="S81" s="3">
+        <v>500</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>400</v>
       </c>
       <c r="V81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4855,11 +5054,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5227,35 +5444,38 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5313,11 +5534,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5499,35 +5729,38 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-13700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>45300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-57500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5592,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-100</v>
@@ -5604,7 +5838,7 @@
         <v>-100</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5833,35 +6079,38 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>12100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-46300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>59600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5957,31 +6209,34 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3100</v>
       </c>
       <c r="K8" s="3">
         <v>3100</v>
@@ -790,31 +794,31 @@
         <v>3100</v>
       </c>
       <c r="M8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N8" s="3">
         <v>3000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2800</v>
       </c>
       <c r="O8" s="3">
         <v>2800</v>
       </c>
       <c r="P8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q8" s="3">
         <v>2600</v>
       </c>
       <c r="R8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="S8" s="3">
         <v>2400</v>
       </c>
       <c r="T8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U8" s="3">
         <v>2300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2100</v>
       </c>
       <c r="V8" s="3">
         <v>2100</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,81 +1298,84 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2200</v>
       </c>
       <c r="J18" s="3">
         <v>2200</v>
@@ -1354,10 +1384,10 @@
         <v>2200</v>
       </c>
       <c r="L18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M18" s="3">
         <v>2300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2200</v>
       </c>
       <c r="N18" s="3">
         <v>2200</v>
@@ -1366,31 +1396,34 @@
         <v>2200</v>
       </c>
       <c r="P18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2000</v>
       </c>
       <c r="T18" s="3">
         <v>2000</v>
       </c>
       <c r="U18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V18" s="3">
         <v>1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1400</v>
       </c>
       <c r="J20" s="3">
         <v>-1400</v>
       </c>
       <c r="K20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1500</v>
       </c>
       <c r="U20" s="3">
         <v>-1500</v>
       </c>
       <c r="V20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="W20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,32 +1557,35 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>700</v>
       </c>
       <c r="S21" s="3">
         <v>700</v>
       </c>
       <c r="T21" s="3">
+        <v>700</v>
+      </c>
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,102 +1649,108 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1100</v>
       </c>
       <c r="G23" s="3">
         <v>1100</v>
       </c>
       <c r="H23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>600</v>
       </c>
       <c r="L23" s="3">
         <v>600</v>
       </c>
       <c r="M23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N23" s="3">
         <v>800</v>
       </c>
       <c r="O23" s="3">
+        <v>800</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>600</v>
       </c>
       <c r="S23" s="3">
         <v>600</v>
       </c>
       <c r="T23" s="3">
+        <v>600</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>600</v>
       </c>
       <c r="W23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
@@ -1713,16 +1759,16 @@
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
@@ -1731,16 +1777,19 @@
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,16 +1853,19 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>800</v>
       </c>
       <c r="F26" s="3">
         <v>800</v>
@@ -1822,63 +1874,66 @@
         <v>800</v>
       </c>
       <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>400</v>
       </c>
       <c r="L26" s="3">
         <v>400</v>
       </c>
       <c r="M26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N26" s="3">
         <v>600</v>
       </c>
       <c r="O26" s="3">
+        <v>600</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>500</v>
       </c>
       <c r="S26" s="3">
         <v>500</v>
       </c>
       <c r="T26" s="3">
+        <v>500</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>400</v>
       </c>
       <c r="W26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>800</v>
       </c>
       <c r="F27" s="3">
         <v>800</v>
@@ -1887,55 +1942,58 @@
         <v>800</v>
       </c>
       <c r="H27" s="3">
+        <v>800</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>400</v>
       </c>
       <c r="L27" s="3">
         <v>400</v>
       </c>
       <c r="M27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N27" s="3">
         <v>600</v>
       </c>
       <c r="O27" s="3">
+        <v>600</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>500</v>
       </c>
       <c r="S27" s="3">
         <v>500</v>
       </c>
       <c r="T27" s="3">
+        <v>500</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>400</v>
       </c>
       <c r="W27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,81 +2261,87 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1400</v>
       </c>
       <c r="J32" s="3">
         <v>1400</v>
       </c>
       <c r="K32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1500</v>
       </c>
       <c r="U32" s="3">
         <v>1500</v>
       </c>
       <c r="V32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="W32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>800</v>
       </c>
       <c r="F33" s="3">
         <v>800</v>
@@ -2277,55 +2350,58 @@
         <v>800</v>
       </c>
       <c r="H33" s="3">
+        <v>800</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>400</v>
       </c>
       <c r="L33" s="3">
         <v>400</v>
       </c>
       <c r="M33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N33" s="3">
         <v>600</v>
       </c>
       <c r="O33" s="3">
+        <v>600</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>500</v>
       </c>
       <c r="S33" s="3">
         <v>500</v>
       </c>
       <c r="T33" s="3">
+        <v>500</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>400</v>
       </c>
       <c r="W33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,16 +2465,19 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>800</v>
       </c>
       <c r="F35" s="3">
         <v>800</v>
@@ -2407,125 +2486,131 @@
         <v>800</v>
       </c>
       <c r="H35" s="3">
+        <v>800</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>400</v>
       </c>
       <c r="L35" s="3">
         <v>400</v>
       </c>
       <c r="M35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N35" s="3">
         <v>600</v>
       </c>
       <c r="O35" s="3">
+        <v>600</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>500</v>
       </c>
       <c r="S35" s="3">
         <v>500</v>
       </c>
       <c r="T35" s="3">
+        <v>500</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>400</v>
       </c>
       <c r="W35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>4500</v>
       </c>
       <c r="L41" s="3">
         <v>4500</v>
       </c>
       <c r="M41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E42" s="3">
         <v>15200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>55900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,7 +3149,7 @@
         <v>6300</v>
       </c>
       <c r="F48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G48" s="3">
         <v>6400</v>
@@ -3050,19 +3158,19 @@
         <v>6400</v>
       </c>
       <c r="I48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J48" s="3">
         <v>6500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6600</v>
       </c>
       <c r="K48" s="3">
         <v>6600</v>
       </c>
       <c r="L48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M48" s="3">
         <v>6700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6600</v>
       </c>
       <c r="N48" s="3">
         <v>6600</v>
@@ -3074,13 +3182,13 @@
         <v>6600</v>
       </c>
       <c r="Q48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="R48" s="3">
         <v>6700</v>
       </c>
       <c r="S48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="T48" s="3">
         <v>6800</v>
@@ -3089,13 +3197,16 @@
         <v>6800</v>
       </c>
       <c r="V48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="W48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3124,7 +3235,7 @@
         <v>800</v>
       </c>
       <c r="L49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>900</v>
@@ -3142,7 +3253,7 @@
         <v>900</v>
       </c>
       <c r="R49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S49" s="3">
         <v>1000</v>
@@ -3157,10 +3268,13 @@
         <v>1000</v>
       </c>
       <c r="W49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,22 +3418,22 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>1600</v>
       </c>
       <c r="G52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1800</v>
       </c>
       <c r="K52" s="3">
         <v>1800</v>
@@ -3322,40 +3442,43 @@
         <v>1800</v>
       </c>
       <c r="M52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1900</v>
       </c>
       <c r="Q52" s="3">
         <v>1900</v>
       </c>
       <c r="R52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S52" s="3">
         <v>2500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>330500</v>
+      </c>
+      <c r="E54" s="3">
         <v>323400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>307600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>310600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>312200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>307100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>304200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>301600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>289500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>292800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>277700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>273800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>268000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>255400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>245700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>239000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>236400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>230200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>276100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3555,7 +3686,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>281700</v>
+      </c>
+      <c r="E66" s="3">
         <v>274800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>258400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>261700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>262600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>258300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>249800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>253900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>251000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>236600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>240000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>225100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>221400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>215500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>202300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>191700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>185400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>183300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>177400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>243700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E72" s="3">
         <v>19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E76" s="3">
         <v>48600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>52500</v>
       </c>
       <c r="P76" s="3">
         <v>52500</v>
       </c>
       <c r="Q76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="R76" s="3">
         <v>53100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>54000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,86 +5048,92 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>800</v>
       </c>
       <c r="F81" s="3">
         <v>800</v>
@@ -4947,55 +5142,58 @@
         <v>800</v>
       </c>
       <c r="H81" s="3">
+        <v>800</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>400</v>
       </c>
       <c r="L81" s="3">
         <v>400</v>
       </c>
       <c r="M81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N81" s="3">
         <v>600</v>
       </c>
       <c r="O81" s="3">
+        <v>600</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>500</v>
       </c>
       <c r="S81" s="3">
         <v>500</v>
       </c>
       <c r="T81" s="3">
+        <v>500</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>400</v>
       </c>
       <c r="W81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5057,11 +5256,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5447,35 +5664,38 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5537,11 +5758,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5732,35 +5962,38 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>45300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-57500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5829,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-100</v>
@@ -5841,7 +6075,7 @@
         <v>-100</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6082,35 +6328,38 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>12100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-46300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>59600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6212,31 +6464,34 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,25 +774,25 @@
         <v>3200</v>
       </c>
       <c r="E8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3100</v>
       </c>
       <c r="L8" s="3">
         <v>3100</v>
@@ -797,31 +801,31 @@
         <v>3100</v>
       </c>
       <c r="N8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O8" s="3">
         <v>3000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2800</v>
       </c>
       <c r="P8" s="3">
         <v>2800</v>
       </c>
       <c r="Q8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="R8" s="3">
         <v>2600</v>
       </c>
       <c r="S8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="T8" s="3">
         <v>2400</v>
       </c>
       <c r="U8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V8" s="3">
         <v>2300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2100</v>
       </c>
       <c r="W8" s="3">
         <v>2100</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1312,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1301,84 +1328,87 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>900</v>
       </c>
       <c r="M17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2200</v>
       </c>
       <c r="K18" s="3">
         <v>2200</v>
@@ -1387,10 +1417,10 @@
         <v>2200</v>
       </c>
       <c r="M18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N18" s="3">
         <v>2300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2200</v>
       </c>
       <c r="O18" s="3">
         <v>2200</v>
@@ -1399,31 +1429,34 @@
         <v>2200</v>
       </c>
       <c r="Q18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R18" s="3">
         <v>2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2000</v>
       </c>
       <c r="U18" s="3">
         <v>2000</v>
       </c>
       <c r="V18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W18" s="3">
         <v>1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,67 +1491,70 @@
         <v>-1700</v>
       </c>
       <c r="E20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1400</v>
       </c>
       <c r="K20" s="3">
         <v>-1400</v>
       </c>
       <c r="L20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1500</v>
       </c>
       <c r="V20" s="3">
         <v>-1500</v>
       </c>
       <c r="W20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="X20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1560,32 +1597,35 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>700</v>
       </c>
       <c r="T21" s="3">
         <v>700</v>
       </c>
       <c r="U21" s="3">
+        <v>700</v>
+      </c>
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1100</v>
       </c>
       <c r="H23" s="3">
         <v>1100</v>
       </c>
       <c r="I23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>600</v>
       </c>
       <c r="M23" s="3">
         <v>600</v>
       </c>
       <c r="N23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O23" s="3">
         <v>800</v>
       </c>
       <c r="P23" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>600</v>
       </c>
       <c r="T23" s="3">
         <v>600</v>
       </c>
       <c r="U23" s="3">
+        <v>600</v>
+      </c>
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>600</v>
       </c>
       <c r="X23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,31 +1775,31 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
@@ -1762,16 +1808,16 @@
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
@@ -1780,16 +1826,19 @@
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,19 +1905,22 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>800</v>
       </c>
       <c r="G26" s="3">
         <v>800</v>
@@ -1877,66 +1929,69 @@
         <v>800</v>
       </c>
       <c r="I26" s="3">
+        <v>800</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>400</v>
       </c>
       <c r="M26" s="3">
         <v>400</v>
       </c>
       <c r="N26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O26" s="3">
         <v>600</v>
       </c>
       <c r="P26" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>500</v>
       </c>
       <c r="T26" s="3">
         <v>500</v>
       </c>
       <c r="U26" s="3">
+        <v>500</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>400</v>
       </c>
       <c r="X26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>800</v>
       </c>
       <c r="G27" s="3">
         <v>800</v>
@@ -1945,55 +2000,58 @@
         <v>800</v>
       </c>
       <c r="I27" s="3">
+        <v>800</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>400</v>
       </c>
       <c r="M27" s="3">
         <v>400</v>
       </c>
       <c r="N27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O27" s="3">
         <v>600</v>
       </c>
       <c r="P27" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>500</v>
       </c>
       <c r="T27" s="3">
         <v>500</v>
       </c>
       <c r="U27" s="3">
+        <v>500</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>400</v>
       </c>
       <c r="X27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,78 +2343,81 @@
         <v>1700</v>
       </c>
       <c r="E32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1400</v>
       </c>
       <c r="K32" s="3">
         <v>1400</v>
       </c>
       <c r="L32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1500</v>
       </c>
       <c r="V32" s="3">
         <v>1500</v>
       </c>
       <c r="W32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="X32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>800</v>
       </c>
       <c r="G33" s="3">
         <v>800</v>
@@ -2353,55 +2426,58 @@
         <v>800</v>
       </c>
       <c r="I33" s="3">
+        <v>800</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>400</v>
       </c>
       <c r="M33" s="3">
         <v>400</v>
       </c>
       <c r="N33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O33" s="3">
         <v>600</v>
       </c>
       <c r="P33" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>500</v>
       </c>
       <c r="T33" s="3">
         <v>500</v>
       </c>
       <c r="U33" s="3">
+        <v>500</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>400</v>
       </c>
       <c r="X33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,19 +2544,22 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>800</v>
       </c>
       <c r="G35" s="3">
         <v>800</v>
@@ -2489,128 +2568,134 @@
         <v>800</v>
       </c>
       <c r="I35" s="3">
+        <v>800</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>400</v>
       </c>
       <c r="M35" s="3">
         <v>400</v>
       </c>
       <c r="N35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O35" s="3">
         <v>600</v>
       </c>
       <c r="P35" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>500</v>
       </c>
       <c r="T35" s="3">
         <v>500</v>
       </c>
       <c r="U35" s="3">
+        <v>500</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>400</v>
       </c>
       <c r="X35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2747,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
-        <v>7800</v>
-      </c>
       <c r="G41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>4500</v>
       </c>
       <c r="M41" s="3">
         <v>4500</v>
       </c>
       <c r="N41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E42" s="3">
         <v>9900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15200</v>
       </c>
-      <c r="F42" s="3">
-        <v>9300</v>
-      </c>
       <c r="G42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>55900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,13 +3242,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E48" s="3">
         <v>6300</v>
@@ -3152,7 +3260,7 @@
         <v>6300</v>
       </c>
       <c r="G48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H48" s="3">
         <v>6400</v>
@@ -3161,19 +3269,19 @@
         <v>6400</v>
       </c>
       <c r="J48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6600</v>
       </c>
       <c r="L48" s="3">
         <v>6600</v>
       </c>
       <c r="M48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N48" s="3">
         <v>6700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6600</v>
       </c>
       <c r="O48" s="3">
         <v>6600</v>
@@ -3185,13 +3293,13 @@
         <v>6600</v>
       </c>
       <c r="R48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="S48" s="3">
         <v>6700</v>
       </c>
       <c r="T48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="U48" s="3">
         <v>6800</v>
@@ -3200,13 +3308,16 @@
         <v>6800</v>
       </c>
       <c r="W48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="X48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3238,7 +3349,7 @@
         <v>800</v>
       </c>
       <c r="M49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>900</v>
@@ -3256,7 +3367,7 @@
         <v>900</v>
       </c>
       <c r="S49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T49" s="3">
         <v>1000</v>
@@ -3271,10 +3382,13 @@
         <v>1000</v>
       </c>
       <c r="X49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,34 +3526,37 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
       </c>
       <c r="F52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1800</v>
       </c>
       <c r="L52" s="3">
         <v>1800</v>
@@ -3445,40 +3565,43 @@
         <v>1800</v>
       </c>
       <c r="N52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1900</v>
       </c>
       <c r="R52" s="3">
         <v>1900</v>
       </c>
       <c r="S52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T52" s="3">
         <v>2500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E54" s="3">
         <v>330500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>323400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>307600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>310600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>312200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>307100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>304200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>301600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>289500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>292800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>277700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>273800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>268000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>255400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>245700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>239000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>236400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>230200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>276100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3795,14 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3689,7 +3820,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>294400</v>
+      </c>
+      <c r="E66" s="3">
         <v>281700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>274800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>258400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>261700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>262600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>258300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>249800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>253900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>251000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>236600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>240000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>225100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>221400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>215500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>202300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>191700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>185400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>183300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>177400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>243700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E72" s="3">
         <v>19500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19000</v>
       </c>
-      <c r="F72" s="3">
-        <v>19400</v>
-      </c>
       <c r="G72" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H72" s="3">
         <v>18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E76" s="3">
         <v>48800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>52500</v>
       </c>
       <c r="Q76" s="3">
         <v>52500</v>
       </c>
       <c r="R76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="S76" s="3">
         <v>53100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>54000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>53100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>52700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,92 +5240,98 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>800</v>
       </c>
       <c r="G81" s="3">
         <v>800</v>
@@ -5145,55 +5340,58 @@
         <v>800</v>
       </c>
       <c r="I81" s="3">
+        <v>800</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>400</v>
       </c>
       <c r="M81" s="3">
         <v>400</v>
       </c>
       <c r="N81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O81" s="3">
         <v>600</v>
       </c>
       <c r="P81" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>500</v>
       </c>
       <c r="T81" s="3">
         <v>500</v>
       </c>
       <c r="U81" s="3">
+        <v>500</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>400</v>
       </c>
       <c r="X81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5259,11 +5458,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5667,35 +5884,38 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5761,11 +5982,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5965,35 +6195,38 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-13700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>45300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-57500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6066,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-100</v>
@@ -6078,7 +6312,7 @@
         <v>-100</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6331,35 +6577,38 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>12100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-46300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>59600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6467,31 +6719,34 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,140 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E8" s="3">
         <v>3200</v>
       </c>
       <c r="F8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3100</v>
       </c>
       <c r="M8" s="3">
         <v>3100</v>
@@ -804,31 +807,31 @@
         <v>3100</v>
       </c>
       <c r="O8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P8" s="3">
         <v>3000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2800</v>
       </c>
       <c r="Q8" s="3">
         <v>2800</v>
       </c>
       <c r="R8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="S8" s="3">
         <v>2600</v>
       </c>
       <c r="T8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="U8" s="3">
         <v>2400</v>
       </c>
       <c r="V8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W8" s="3">
         <v>2300</v>
-      </c>
-      <c r="W8" s="3">
-        <v>2100</v>
       </c>
       <c r="X8" s="3">
         <v>2100</v>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,16 +1338,17 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1331,61 +1357,64 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>900</v>
       </c>
       <c r="M17" s="3">
         <v>900</v>
       </c>
       <c r="N17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,25 +1422,25 @@
         <v>2800</v>
       </c>
       <c r="E18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2200</v>
       </c>
       <c r="L18" s="3">
         <v>2200</v>
@@ -1420,10 +1449,10 @@
         <v>2200</v>
       </c>
       <c r="N18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O18" s="3">
         <v>2300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2200</v>
       </c>
       <c r="P18" s="3">
         <v>2200</v>
@@ -1432,31 +1461,34 @@
         <v>2200</v>
       </c>
       <c r="R18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S18" s="3">
         <v>2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>2000</v>
       </c>
       <c r="V18" s="3">
         <v>2000</v>
       </c>
       <c r="W18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X18" s="3">
         <v>1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>-1700</v>
       </c>
       <c r="F20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1400</v>
       </c>
       <c r="L20" s="3">
         <v>-1400</v>
       </c>
       <c r="M20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1500</v>
       </c>
       <c r="W20" s="3">
         <v>-1500</v>
       </c>
       <c r="X20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1600,32 +1636,35 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>700</v>
       </c>
       <c r="U21" s="3">
         <v>700</v>
       </c>
       <c r="V21" s="3">
+        <v>700</v>
+      </c>
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,114 +1734,120 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1100</v>
       </c>
       <c r="I23" s="3">
         <v>1100</v>
       </c>
       <c r="J23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>600</v>
       </c>
       <c r="N23" s="3">
         <v>600</v>
       </c>
       <c r="O23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="P23" s="3">
         <v>800</v>
       </c>
       <c r="Q23" s="3">
+        <v>800</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>600</v>
       </c>
       <c r="U23" s="3">
         <v>600</v>
       </c>
       <c r="V23" s="3">
+        <v>600</v>
+      </c>
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>600</v>
       </c>
       <c r="Y23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
@@ -1811,16 +1856,16 @@
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
@@ -1829,16 +1874,19 @@
         <v>200</v>
       </c>
       <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
-      </c>
-      <c r="X24" s="3">
-        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,13 +1968,13 @@
         <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>800</v>
       </c>
       <c r="H26" s="3">
         <v>800</v>
@@ -1932,55 +1983,58 @@
         <v>800</v>
       </c>
       <c r="J26" s="3">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>400</v>
       </c>
       <c r="N26" s="3">
         <v>400</v>
       </c>
       <c r="O26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P26" s="3">
         <v>600</v>
       </c>
       <c r="Q26" s="3">
+        <v>600</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>500</v>
       </c>
       <c r="U26" s="3">
         <v>500</v>
       </c>
       <c r="V26" s="3">
+        <v>500</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
-      </c>
-      <c r="X26" s="3">
-        <v>400</v>
       </c>
       <c r="Y26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,13 +2042,13 @@
         <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>800</v>
       </c>
       <c r="H27" s="3">
         <v>800</v>
@@ -2003,55 +2057,58 @@
         <v>800</v>
       </c>
       <c r="J27" s="3">
+        <v>800</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>400</v>
       </c>
       <c r="N27" s="3">
         <v>400</v>
       </c>
       <c r="O27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P27" s="3">
         <v>600</v>
       </c>
       <c r="Q27" s="3">
+        <v>600</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>500</v>
       </c>
       <c r="U27" s="3">
         <v>500</v>
       </c>
       <c r="V27" s="3">
+        <v>500</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
-      </c>
-      <c r="X27" s="3">
-        <v>400</v>
       </c>
       <c r="Y27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,79 +2400,85 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>1700</v>
       </c>
       <c r="F32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1400</v>
       </c>
       <c r="L32" s="3">
         <v>1400</v>
       </c>
       <c r="M32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1500</v>
       </c>
       <c r="W32" s="3">
         <v>1500</v>
       </c>
       <c r="X32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Y32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2414,13 +2486,13 @@
         <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>800</v>
       </c>
       <c r="H33" s="3">
         <v>800</v>
@@ -2429,55 +2501,58 @@
         <v>800</v>
       </c>
       <c r="J33" s="3">
+        <v>800</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>400</v>
       </c>
       <c r="N33" s="3">
         <v>400</v>
       </c>
       <c r="O33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P33" s="3">
         <v>600</v>
       </c>
       <c r="Q33" s="3">
+        <v>600</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>500</v>
       </c>
       <c r="U33" s="3">
         <v>500</v>
       </c>
       <c r="V33" s="3">
+        <v>500</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
-      </c>
-      <c r="X33" s="3">
-        <v>400</v>
       </c>
       <c r="Y33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,13 +2634,13 @@
         <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>800</v>
       </c>
       <c r="H35" s="3">
         <v>800</v>
@@ -2571,131 +2649,137 @@
         <v>800</v>
       </c>
       <c r="J35" s="3">
+        <v>800</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>400</v>
       </c>
       <c r="N35" s="3">
         <v>400</v>
       </c>
       <c r="O35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P35" s="3">
         <v>600</v>
       </c>
       <c r="Q35" s="3">
+        <v>600</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>500</v>
       </c>
       <c r="U35" s="3">
         <v>500</v>
       </c>
       <c r="V35" s="3">
+        <v>500</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
-      </c>
-      <c r="X35" s="3">
-        <v>400</v>
       </c>
       <c r="Y35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>4500</v>
       </c>
       <c r="N41" s="3">
         <v>4500</v>
       </c>
       <c r="O41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E42" s="3">
         <v>18700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>55900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,16 +3349,19 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6300</v>
       </c>
       <c r="F48" s="3">
         <v>6300</v>
@@ -3263,7 +3370,7 @@
         <v>6300</v>
       </c>
       <c r="H48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="I48" s="3">
         <v>6400</v>
@@ -3272,19 +3379,19 @@
         <v>6400</v>
       </c>
       <c r="K48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L48" s="3">
         <v>6500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6600</v>
       </c>
       <c r="M48" s="3">
         <v>6600</v>
       </c>
       <c r="N48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O48" s="3">
         <v>6700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6600</v>
       </c>
       <c r="P48" s="3">
         <v>6600</v>
@@ -3296,13 +3403,13 @@
         <v>6600</v>
       </c>
       <c r="S48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="T48" s="3">
         <v>6700</v>
       </c>
       <c r="U48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="V48" s="3">
         <v>6800</v>
@@ -3311,13 +3418,16 @@
         <v>6800</v>
       </c>
       <c r="X48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="Y48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3352,7 +3462,7 @@
         <v>800</v>
       </c>
       <c r="N49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O49" s="3">
         <v>900</v>
@@ -3370,7 +3480,7 @@
         <v>900</v>
       </c>
       <c r="T49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U49" s="3">
         <v>1000</v>
@@ -3385,10 +3495,13 @@
         <v>1000</v>
       </c>
       <c r="Y49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3538,7 +3657,7 @@
         <v>1800</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
         <v>1700</v>
@@ -3547,19 +3666,19 @@
         <v>1700</v>
       </c>
       <c r="H52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1800</v>
       </c>
       <c r="M52" s="3">
         <v>1800</v>
@@ -3568,40 +3687,43 @@
         <v>1800</v>
       </c>
       <c r="O52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1900</v>
       </c>
       <c r="S52" s="3">
         <v>1900</v>
       </c>
       <c r="T52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U52" s="3">
         <v>2500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E54" s="3">
         <v>343200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>330500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>323400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>307600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>310600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>312200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>307100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>304200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>301600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>289500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>292800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>277700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>273800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>268000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>255400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>245700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>239000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>236400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>230200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>276100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3823,7 +3953,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>294600</v>
+      </c>
+      <c r="E66" s="3">
         <v>294400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>281700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>274800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>258400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>261700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>262600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>258300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>249800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>253900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>251000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>236600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>240000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>225100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>221400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>215500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>202300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>191700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>185400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>183300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>177400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>243700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E72" s="3">
         <v>20100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E76" s="3">
         <v>48900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>52500</v>
       </c>
       <c r="R76" s="3">
         <v>52500</v>
       </c>
       <c r="S76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="T76" s="3">
         <v>53100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>53700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>53100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>52700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>32400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5328,13 +5522,13 @@
         <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>800</v>
       </c>
       <c r="H81" s="3">
         <v>800</v>
@@ -5343,55 +5537,58 @@
         <v>800</v>
       </c>
       <c r="J81" s="3">
+        <v>800</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>400</v>
       </c>
       <c r="N81" s="3">
         <v>400</v>
       </c>
       <c r="O81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P81" s="3">
         <v>600</v>
       </c>
       <c r="Q81" s="3">
+        <v>600</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>500</v>
       </c>
       <c r="U81" s="3">
         <v>500</v>
       </c>
       <c r="V81" s="3">
+        <v>500</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
-      </c>
-      <c r="X81" s="3">
-        <v>400</v>
       </c>
       <c r="Y81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5461,11 +5659,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5887,35 +6103,38 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5985,11 +6205,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6198,35 +6427,38 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-13700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>45300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-57500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6303,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-100</v>
@@ -6315,7 +6548,7 @@
         <v>-100</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6580,35 +6825,38 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>12100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-46300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>59600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6722,31 +6973,34 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3200</v>
       </c>
       <c r="F8" s="3">
         <v>3200</v>
       </c>
       <c r="G8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3100</v>
       </c>
       <c r="N8" s="3">
         <v>3100</v>
@@ -810,31 +814,31 @@
         <v>3100</v>
       </c>
       <c r="P8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2800</v>
       </c>
       <c r="R8" s="3">
         <v>2800</v>
       </c>
       <c r="S8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="T8" s="3">
         <v>2600</v>
       </c>
       <c r="U8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="V8" s="3">
         <v>2400</v>
       </c>
       <c r="W8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X8" s="3">
         <v>2300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>2100</v>
       </c>
       <c r="Y8" s="3">
         <v>2100</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,10 +1375,10 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
@@ -1360,90 +1387,93 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>900</v>
       </c>
       <c r="N17" s="3">
         <v>900</v>
       </c>
       <c r="O17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E18" s="3">
         <v>2800</v>
       </c>
       <c r="F18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2200</v>
       </c>
       <c r="M18" s="3">
         <v>2200</v>
@@ -1452,10 +1482,10 @@
         <v>2200</v>
       </c>
       <c r="O18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P18" s="3">
         <v>2300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2200</v>
       </c>
       <c r="Q18" s="3">
         <v>2200</v>
@@ -1464,31 +1494,34 @@
         <v>2200</v>
       </c>
       <c r="S18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T18" s="3">
         <v>2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1900</v>
-      </c>
-      <c r="V18" s="3">
-        <v>2000</v>
       </c>
       <c r="W18" s="3">
         <v>2000</v>
       </c>
       <c r="X18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1700</v>
       </c>
       <c r="F20" s="3">
         <v>-1700</v>
       </c>
       <c r="G20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1400</v>
       </c>
       <c r="M20" s="3">
         <v>-1400</v>
       </c>
       <c r="N20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1500</v>
       </c>
       <c r="X20" s="3">
         <v>-1500</v>
       </c>
       <c r="Y20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="Z20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1639,32 +1676,35 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>700</v>
       </c>
       <c r="V21" s="3">
         <v>700</v>
       </c>
       <c r="W21" s="3">
+        <v>700</v>
+      </c>
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1746,111 +1789,114 @@
         <v>1200</v>
       </c>
       <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1100</v>
       </c>
       <c r="J23" s="3">
         <v>1100</v>
       </c>
       <c r="K23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>600</v>
       </c>
       <c r="O23" s="3">
         <v>600</v>
       </c>
       <c r="P23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q23" s="3">
         <v>800</v>
       </c>
       <c r="R23" s="3">
+        <v>800</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
-      </c>
-      <c r="U23" s="3">
-        <v>600</v>
       </c>
       <c r="V23" s="3">
         <v>600</v>
       </c>
       <c r="W23" s="3">
+        <v>600</v>
+      </c>
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>600</v>
       </c>
       <c r="Z23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
@@ -1859,16 +1905,16 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
@@ -1877,16 +1923,19 @@
         <v>200</v>
       </c>
       <c r="X24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,25 +2008,28 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E26" s="3">
         <v>800</v>
       </c>
       <c r="F26" s="3">
+        <v>800</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>800</v>
       </c>
       <c r="I26" s="3">
         <v>800</v>
@@ -1986,72 +2038,75 @@
         <v>800</v>
       </c>
       <c r="K26" s="3">
+        <v>800</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>400</v>
       </c>
       <c r="O26" s="3">
         <v>400</v>
       </c>
       <c r="P26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="3">
         <v>600</v>
       </c>
       <c r="R26" s="3">
+        <v>600</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
-      </c>
-      <c r="U26" s="3">
-        <v>500</v>
       </c>
       <c r="V26" s="3">
         <v>500</v>
       </c>
       <c r="W26" s="3">
+        <v>500</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>400</v>
       </c>
       <c r="Z26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E27" s="3">
         <v>800</v>
       </c>
       <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>800</v>
       </c>
       <c r="I27" s="3">
         <v>800</v>
@@ -2060,55 +2115,58 @@
         <v>800</v>
       </c>
       <c r="K27" s="3">
+        <v>800</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>400</v>
       </c>
       <c r="O27" s="3">
         <v>400</v>
       </c>
       <c r="P27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q27" s="3">
         <v>600</v>
       </c>
       <c r="R27" s="3">
+        <v>600</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
-      </c>
-      <c r="U27" s="3">
-        <v>500</v>
       </c>
       <c r="V27" s="3">
         <v>500</v>
       </c>
       <c r="W27" s="3">
+        <v>500</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>400</v>
       </c>
       <c r="Z27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,99 +2470,105 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1700</v>
       </c>
       <c r="F32" s="3">
         <v>1700</v>
       </c>
       <c r="G32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1400</v>
       </c>
       <c r="M32" s="3">
         <v>1400</v>
       </c>
       <c r="N32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1500</v>
       </c>
       <c r="X32" s="3">
         <v>1500</v>
       </c>
       <c r="Y32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Z32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E33" s="3">
         <v>800</v>
       </c>
       <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>800</v>
       </c>
       <c r="I33" s="3">
         <v>800</v>
@@ -2504,55 +2577,58 @@
         <v>800</v>
       </c>
       <c r="K33" s="3">
+        <v>800</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>400</v>
       </c>
       <c r="O33" s="3">
         <v>400</v>
       </c>
       <c r="P33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q33" s="3">
         <v>600</v>
       </c>
       <c r="R33" s="3">
+        <v>600</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>500</v>
       </c>
       <c r="V33" s="3">
         <v>500</v>
       </c>
       <c r="W33" s="3">
+        <v>500</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>400</v>
       </c>
       <c r="Z33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,25 +2701,28 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E35" s="3">
         <v>800</v>
       </c>
       <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>800</v>
       </c>
       <c r="I35" s="3">
         <v>800</v>
@@ -2652,134 +2731,140 @@
         <v>800</v>
       </c>
       <c r="K35" s="3">
+        <v>800</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>400</v>
       </c>
       <c r="O35" s="3">
         <v>400</v>
       </c>
       <c r="P35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q35" s="3">
         <v>600</v>
       </c>
       <c r="R35" s="3">
+        <v>600</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>500</v>
       </c>
       <c r="V35" s="3">
         <v>500</v>
       </c>
       <c r="W35" s="3">
+        <v>500</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>400</v>
       </c>
       <c r="Z35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6000</v>
+        <v>10400</v>
       </c>
       <c r="E41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>4500</v>
       </c>
       <c r="O41" s="3">
         <v>4500</v>
       </c>
       <c r="P41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2400</v>
+        <v>9300</v>
       </c>
       <c r="E42" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F42" s="3">
         <v>18700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>55900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,10 +3469,10 @@
         <v>6300</v>
       </c>
       <c r="E48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F48" s="3">
         <v>6400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6300</v>
       </c>
       <c r="G48" s="3">
         <v>6300</v>
@@ -3373,7 +3481,7 @@
         <v>6300</v>
       </c>
       <c r="I48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="J48" s="3">
         <v>6400</v>
@@ -3382,19 +3490,19 @@
         <v>6400</v>
       </c>
       <c r="L48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="M48" s="3">
         <v>6500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6600</v>
       </c>
       <c r="N48" s="3">
         <v>6600</v>
       </c>
       <c r="O48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P48" s="3">
         <v>6700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6600</v>
       </c>
       <c r="Q48" s="3">
         <v>6600</v>
@@ -3406,13 +3514,13 @@
         <v>6600</v>
       </c>
       <c r="T48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="U48" s="3">
         <v>6700</v>
       </c>
       <c r="V48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="W48" s="3">
         <v>6800</v>
@@ -3421,18 +3529,21 @@
         <v>6800</v>
       </c>
       <c r="Y48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="Z48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>800</v>
@@ -3465,7 +3576,7 @@
         <v>800</v>
       </c>
       <c r="O49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P49" s="3">
         <v>900</v>
@@ -3483,7 +3594,7 @@
         <v>900</v>
       </c>
       <c r="U49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V49" s="3">
         <v>1000</v>
@@ -3498,10 +3609,13 @@
         <v>1000</v>
       </c>
       <c r="Z49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,19 +3765,22 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
       </c>
       <c r="F52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
@@ -3669,19 +3789,19 @@
         <v>1700</v>
       </c>
       <c r="I52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1800</v>
       </c>
       <c r="N52" s="3">
         <v>1800</v>
@@ -3690,40 +3810,43 @@
         <v>1800</v>
       </c>
       <c r="P52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1900</v>
       </c>
       <c r="T52" s="3">
         <v>1900</v>
       </c>
       <c r="U52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V52" s="3">
         <v>2500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>342700</v>
+        <v>348800</v>
       </c>
       <c r="E54" s="3">
+        <v>342500</v>
+      </c>
+      <c r="F54" s="3">
         <v>343200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>330500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>323400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>307600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>310600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>312200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>307100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>304200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>301600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>289500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>292800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>277700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>273800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>268000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>255400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>245700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>239000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>236400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>230200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>276100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3938,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3956,7 +4087,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>294600</v>
+        <v>301700</v>
       </c>
       <c r="E66" s="3">
+        <v>294500</v>
+      </c>
+      <c r="F66" s="3">
         <v>294400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>281700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>274800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>258400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>261700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>262600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>258300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>249800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>253900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>251000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>236600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>240000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>225100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>221400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>215500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>202300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>191700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>185400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>183300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>177400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>243700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E72" s="3">
         <v>20500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>17200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E76" s="3">
         <v>48000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>52500</v>
       </c>
       <c r="S76" s="3">
         <v>52500</v>
       </c>
       <c r="T76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="U76" s="3">
         <v>53100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>54000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>53700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>53100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>52700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>32400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,104 +5623,110 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E81" s="3">
         <v>800</v>
       </c>
       <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>800</v>
       </c>
       <c r="I81" s="3">
         <v>800</v>
@@ -5540,55 +5735,58 @@
         <v>800</v>
       </c>
       <c r="K81" s="3">
+        <v>800</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>400</v>
       </c>
       <c r="O81" s="3">
         <v>400</v>
       </c>
       <c r="P81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q81" s="3">
         <v>600</v>
       </c>
       <c r="R81" s="3">
+        <v>600</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>500</v>
       </c>
       <c r="V81" s="3">
         <v>500</v>
       </c>
       <c r="W81" s="3">
+        <v>500</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>400</v>
       </c>
       <c r="Z81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5662,11 +5861,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6106,35 +6323,38 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6208,11 +6429,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6430,35 +6660,38 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-13700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>45300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-57500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6539,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-100</v>
@@ -6551,7 +6785,7 @@
         <v>-100</v>
       </c>
       <c r="X96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y96" s="3">
         <v>0</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6828,35 +7074,38 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>12100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-46300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>59600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6976,31 +7228,34 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,206 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3200</v>
+        <v>9600</v>
       </c>
       <c r="E8" s="3">
-        <v>3100</v>
+        <v>6600</v>
       </c>
       <c r="F8" s="3">
         <v>3200</v>
       </c>
       <c r="G8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H8" s="3">
         <v>3200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2900</v>
       </c>
       <c r="I8" s="3">
         <v>3200</v>
       </c>
       <c r="J8" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K8" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L8" s="3">
         <v>3100</v>
       </c>
       <c r="M8" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="N8" s="3">
         <v>3100</v>
       </c>
       <c r="O8" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="P8" s="3">
         <v>3100</v>
       </c>
       <c r="Q8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S8" s="3">
         <v>3000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2300</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>2100</v>
       </c>
       <c r="AA8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +940,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,64 +1418,66 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
@@ -1432,96 +1486,108 @@
         <v>400</v>
       </c>
       <c r="X17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
       <c r="Z17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2400</v>
       </c>
       <c r="I18" s="3">
         <v>2700</v>
       </c>
       <c r="J18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L18" s="3">
         <v>2500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1900</v>
       </c>
       <c r="M18" s="3">
         <v>2200</v>
       </c>
       <c r="N18" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="O18" s="3">
         <v>2200</v>
       </c>
       <c r="P18" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="Q18" s="3">
         <v>2200</v>
       </c>
       <c r="R18" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="S18" s="3">
         <v>2200</v>
       </c>
       <c r="T18" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="U18" s="3">
         <v>2200</v>
       </c>
       <c r="V18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X18" s="3">
         <v>1900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1900</v>
       </c>
       <c r="AA18" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1615,93 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1600</v>
+        <v>-3700</v>
       </c>
       <c r="F20" s="3">
         <v>-1700</v>
       </c>
       <c r="G20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1600</v>
       </c>
       <c r="I20" s="3">
         <v>-1700</v>
       </c>
       <c r="J20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1679,32 +1753,38 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
-        <v>700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>600</v>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V21" s="3">
         <v>700</v>
       </c>
       <c r="W21" s="3">
+        <v>600</v>
+      </c>
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1860,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>800</v>
       </c>
       <c r="I23" s="3">
         <v>1000</v>
       </c>
       <c r="J23" s="3">
+        <v>800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>700</v>
       </c>
       <c r="U23" s="3">
         <v>500</v>
       </c>
       <c r="V23" s="3">
+        <v>700</v>
+      </c>
+      <c r="W23" s="3">
+        <v>500</v>
+      </c>
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
       <c r="W24" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
       <c r="Y24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
       <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>800</v>
       </c>
       <c r="K26" s="3">
         <v>800</v>
       </c>
       <c r="L26" s="3">
+        <v>800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>800</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>500</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>500</v>
       </c>
       <c r="W26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
-        <v>400</v>
-      </c>
       <c r="Y26" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Z26" s="3">
         <v>400</v>
       </c>
       <c r="AA26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>800</v>
       </c>
       <c r="K27" s="3">
         <v>800</v>
       </c>
       <c r="L27" s="3">
+        <v>800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>800</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>500</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>500</v>
       </c>
       <c r="W27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
-        <v>400</v>
-      </c>
       <c r="Y27" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Z27" s="3">
         <v>400</v>
       </c>
       <c r="AA27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
-        <v>1600</v>
+        <v>3700</v>
       </c>
       <c r="F32" s="3">
         <v>1700</v>
       </c>
       <c r="G32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H32" s="3">
         <v>1700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1600</v>
       </c>
       <c r="I32" s="3">
         <v>1700</v>
       </c>
       <c r="J32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>800</v>
       </c>
       <c r="K33" s="3">
         <v>800</v>
       </c>
       <c r="L33" s="3">
+        <v>800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>800</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>500</v>
       </c>
       <c r="W33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
-        <v>400</v>
-      </c>
       <c r="Y33" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Z33" s="3">
         <v>400</v>
       </c>
       <c r="AA33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>800</v>
       </c>
       <c r="K35" s="3">
         <v>800</v>
       </c>
       <c r="L35" s="3">
+        <v>800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>800</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>500</v>
       </c>
       <c r="W35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
-        <v>400</v>
-      </c>
       <c r="Y35" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Z35" s="3">
         <v>400</v>
       </c>
       <c r="AA35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3093,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F42" s="3">
         <v>9300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>18700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>9900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>15200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>12300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>8200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>14300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10100</v>
-      </c>
-      <c r="P42" s="3">
-        <v>7500</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>11900</v>
       </c>
       <c r="R42" s="3">
         <v>7500</v>
       </c>
       <c r="S42" s="3">
+        <v>11900</v>
+      </c>
+      <c r="T42" s="3">
+        <v>7500</v>
+      </c>
+      <c r="U42" s="3">
         <v>5700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>4800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>4700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>4000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>55900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3504,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,55 +3670,61 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F48" s="3">
         <v>6300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6400</v>
       </c>
       <c r="G48" s="3">
         <v>6300</v>
       </c>
       <c r="H48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I48" s="3">
         <v>6300</v>
       </c>
       <c r="J48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="L48" s="3">
         <v>6400</v>
       </c>
       <c r="M48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6700</v>
       </c>
       <c r="Q48" s="3">
         <v>6600</v>
       </c>
       <c r="R48" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="S48" s="3">
         <v>6600</v>
@@ -3517,28 +3733,34 @@
         <v>6600</v>
       </c>
       <c r="U48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="V48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="W48" s="3">
         <v>6700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6700</v>
-      </c>
-      <c r="W48" s="3">
-        <v>6800</v>
-      </c>
-      <c r="X48" s="3">
-        <v>6800</v>
       </c>
       <c r="Y48" s="3">
         <v>6800</v>
       </c>
       <c r="Z48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="AB48" s="3">
         <v>6900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,10 +3768,10 @@
         <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
@@ -3579,10 +3801,10 @@
         <v>800</v>
       </c>
       <c r="P49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R49" s="3">
         <v>900</v>
@@ -3597,10 +3819,10 @@
         <v>900</v>
       </c>
       <c r="V49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X49" s="3">
         <v>1000</v>
@@ -3612,10 +3834,16 @@
         <v>1000</v>
       </c>
       <c r="AA49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1700</v>
       </c>
       <c r="J52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1700</v>
       </c>
       <c r="N52" s="3">
         <v>1800</v>
       </c>
       <c r="O52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="P52" s="3">
         <v>1800</v>
       </c>
       <c r="Q52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>2100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>359200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>343300</v>
+      </c>
+      <c r="F54" s="3">
         <v>348800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>342500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>343200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>330500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>323400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>307600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>310600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>312200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>307100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>304200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>301600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>289500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>292800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>277700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>273800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>268000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>255400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>245700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>239000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>236400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>230200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>276100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,13 +4317,15 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4072,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -4090,10 +4352,10 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4134,8 +4396,14 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4479,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4288,8 +4562,14 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4645,14 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>316100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>298300</v>
+      </c>
+      <c r="F66" s="3">
         <v>301700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>294500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>294400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>281700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>274800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>258400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>261700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>262600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>258300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>249800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>253900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>251000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>236600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>240000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>225100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>221400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>215500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>202300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>191700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>185400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>183300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>177400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>243700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F72" s="3">
         <v>21100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>20500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>20100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>19500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>19000</v>
       </c>
       <c r="I72" s="3">
         <v>19500</v>
       </c>
       <c r="J72" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>19500</v>
+      </c>
+      <c r="L72" s="3">
         <v>18800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>18300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>17800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>18900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>18500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>18100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>19100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>18900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>18500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>18000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>17800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>17700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>18300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>18000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>17700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>17500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>17200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F76" s="3">
         <v>47100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>48000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>48900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>48800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>48600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>49200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>48900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>49600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>48800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>50700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>50300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>50600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>52900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>52800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>52600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>52500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>52500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>53100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>54000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>53700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>53100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>52700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>32400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>800</v>
       </c>
       <c r="K81" s="3">
         <v>800</v>
       </c>
       <c r="L81" s="3">
+        <v>800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>800</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>500</v>
       </c>
       <c r="W81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
-        <v>400</v>
-      </c>
       <c r="Y81" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Z81" s="3">
         <v>400</v>
       </c>
       <c r="AA81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5864,14 +6262,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6704,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6326,35 +6760,41 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>2400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6432,14 +6874,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6459,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7067,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6663,35 +7123,41 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-13700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-10000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-8000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>45300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-57500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6776,10 +7244,10 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-100</v>
@@ -6788,16 +7256,22 @@
         <v>-100</v>
       </c>
       <c r="Y96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7077,35 +7569,41 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>12100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>9500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>6700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>5400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-46300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>59600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7679,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7231,31 +7735,37 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>1900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,167 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>9600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3200</v>
       </c>
       <c r="I8" s="3">
         <v>3200</v>
       </c>
       <c r="J8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3100</v>
       </c>
       <c r="Q8" s="3">
         <v>3100</v>
@@ -831,31 +834,31 @@
         <v>3100</v>
       </c>
       <c r="S8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T8" s="3">
         <v>3000</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2800</v>
       </c>
       <c r="U8" s="3">
         <v>2800</v>
       </c>
       <c r="V8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="W8" s="3">
         <v>2600</v>
       </c>
       <c r="X8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="Y8" s="3">
         <v>2400</v>
       </c>
       <c r="Z8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA8" s="3">
         <v>2300</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>2100</v>
       </c>
       <c r="AB8" s="3">
         <v>2100</v>
@@ -863,8 +866,11 @@
       <c r="AC8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,28 +1445,29 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -1450,99 +1476,102 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>900</v>
       </c>
       <c r="Q17" s="3">
         <v>900</v>
       </c>
       <c r="R17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S17" s="3">
         <v>800</v>
       </c>
       <c r="T17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2800</v>
       </c>
       <c r="H18" s="3">
         <v>2800</v>
       </c>
       <c r="I18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2200</v>
       </c>
       <c r="P18" s="3">
         <v>2200</v>
@@ -1551,10 +1580,10 @@
         <v>2200</v>
       </c>
       <c r="R18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S18" s="3">
         <v>2300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2200</v>
       </c>
       <c r="T18" s="3">
         <v>2200</v>
@@ -1563,31 +1592,34 @@
         <v>2200</v>
       </c>
       <c r="V18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W18" s="3">
         <v>2100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>2000</v>
       </c>
       <c r="Z18" s="3">
         <v>2000</v>
       </c>
       <c r="AA18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB18" s="3">
         <v>1700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,91 +1649,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1700</v>
       </c>
       <c r="I20" s="3">
         <v>-1700</v>
       </c>
       <c r="J20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1400</v>
       </c>
       <c r="P20" s="3">
         <v>-1400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1500</v>
       </c>
       <c r="AA20" s="3">
         <v>-1500</v>
       </c>
       <c r="AB20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="AC20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1759,32 +1795,35 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
-      </c>
-      <c r="X21" s="3">
-        <v>700</v>
       </c>
       <c r="Y21" s="3">
         <v>700</v>
       </c>
       <c r="Z21" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,138 +1905,144 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1200</v>
       </c>
       <c r="G23" s="3">
         <v>1200</v>
       </c>
       <c r="H23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1100</v>
       </c>
       <c r="M23" s="3">
         <v>1100</v>
       </c>
       <c r="N23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>600</v>
       </c>
       <c r="R23" s="3">
         <v>600</v>
       </c>
       <c r="S23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T23" s="3">
         <v>800</v>
       </c>
       <c r="U23" s="3">
+        <v>800</v>
+      </c>
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>500</v>
-      </c>
-      <c r="X23" s="3">
-        <v>600</v>
       </c>
       <c r="Y23" s="3">
         <v>600</v>
       </c>
       <c r="Z23" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA23" s="3">
         <v>500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>600</v>
       </c>
       <c r="AC23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
@@ -2006,16 +2051,16 @@
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
-      </c>
-      <c r="X24" s="3">
-        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
@@ -2024,16 +2069,19 @@
         <v>200</v>
       </c>
       <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>200</v>
       </c>
       <c r="AC24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,34 +2163,37 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>800</v>
       </c>
       <c r="H26" s="3">
         <v>800</v>
       </c>
       <c r="I26" s="3">
+        <v>800</v>
+      </c>
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>800</v>
       </c>
       <c r="L26" s="3">
         <v>800</v>
@@ -2151,81 +2202,84 @@
         <v>800</v>
       </c>
       <c r="N26" s="3">
+        <v>800</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>400</v>
       </c>
       <c r="R26" s="3">
         <v>400</v>
       </c>
       <c r="S26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T26" s="3">
         <v>600</v>
       </c>
       <c r="U26" s="3">
+        <v>600</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
-      </c>
-      <c r="X26" s="3">
-        <v>500</v>
       </c>
       <c r="Y26" s="3">
         <v>500</v>
       </c>
       <c r="Z26" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>200</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>400</v>
       </c>
       <c r="AC26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>800</v>
       </c>
       <c r="H27" s="3">
         <v>800</v>
       </c>
       <c r="I27" s="3">
+        <v>800</v>
+      </c>
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>800</v>
       </c>
       <c r="L27" s="3">
         <v>800</v>
@@ -2234,55 +2288,58 @@
         <v>800</v>
       </c>
       <c r="N27" s="3">
+        <v>800</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>400</v>
       </c>
       <c r="R27" s="3">
         <v>400</v>
       </c>
       <c r="S27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T27" s="3">
         <v>600</v>
       </c>
       <c r="U27" s="3">
+        <v>600</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
-      </c>
-      <c r="X27" s="3">
-        <v>500</v>
       </c>
       <c r="Y27" s="3">
         <v>500</v>
       </c>
       <c r="Z27" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>200</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>400</v>
       </c>
       <c r="AC27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,117 +2679,123 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1700</v>
       </c>
       <c r="I32" s="3">
         <v>1700</v>
       </c>
       <c r="J32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1400</v>
       </c>
       <c r="P32" s="3">
         <v>1400</v>
       </c>
       <c r="Q32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1500</v>
       </c>
       <c r="AA32" s="3">
         <v>1500</v>
       </c>
       <c r="AB32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="AC32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>800</v>
       </c>
       <c r="H33" s="3">
         <v>800</v>
       </c>
       <c r="I33" s="3">
+        <v>800</v>
+      </c>
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>800</v>
       </c>
       <c r="L33" s="3">
         <v>800</v>
@@ -2732,55 +2804,58 @@
         <v>800</v>
       </c>
       <c r="N33" s="3">
+        <v>800</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>400</v>
       </c>
       <c r="R33" s="3">
         <v>400</v>
       </c>
       <c r="S33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T33" s="3">
         <v>600</v>
       </c>
       <c r="U33" s="3">
+        <v>600</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
-      </c>
-      <c r="X33" s="3">
-        <v>500</v>
       </c>
       <c r="Y33" s="3">
         <v>500</v>
       </c>
       <c r="Z33" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>200</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>400</v>
       </c>
       <c r="AC33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,34 +2937,37 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>800</v>
       </c>
       <c r="H35" s="3">
         <v>800</v>
       </c>
       <c r="I35" s="3">
+        <v>800</v>
+      </c>
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>800</v>
       </c>
       <c r="L35" s="3">
         <v>800</v>
@@ -2898,143 +2976,149 @@
         <v>800</v>
       </c>
       <c r="N35" s="3">
+        <v>800</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>400</v>
       </c>
       <c r="R35" s="3">
         <v>400</v>
       </c>
       <c r="S35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T35" s="3">
         <v>600</v>
       </c>
       <c r="U35" s="3">
+        <v>600</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
-      </c>
-      <c r="X35" s="3">
-        <v>500</v>
       </c>
       <c r="Y35" s="3">
         <v>500</v>
       </c>
       <c r="Z35" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>200</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>400</v>
       </c>
       <c r="AC35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3180,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>4500</v>
       </c>
       <c r="R41" s="3">
         <v>4500</v>
       </c>
       <c r="S41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>9100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>55900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3688,16 +3795,16 @@
         <v>6200</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G48" s="3">
         <v>6300</v>
       </c>
       <c r="H48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I48" s="3">
         <v>6400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6300</v>
       </c>
       <c r="J48" s="3">
         <v>6300</v>
@@ -3706,7 +3813,7 @@
         <v>6300</v>
       </c>
       <c r="L48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="M48" s="3">
         <v>6400</v>
@@ -3715,19 +3822,19 @@
         <v>6400</v>
       </c>
       <c r="O48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P48" s="3">
         <v>6500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6600</v>
       </c>
       <c r="Q48" s="3">
         <v>6600</v>
       </c>
       <c r="R48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S48" s="3">
         <v>6700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>6600</v>
       </c>
       <c r="T48" s="3">
         <v>6600</v>
@@ -3739,13 +3846,13 @@
         <v>6600</v>
       </c>
       <c r="W48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="X48" s="3">
         <v>6700</v>
       </c>
       <c r="Y48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="Z48" s="3">
         <v>6800</v>
@@ -3754,13 +3861,16 @@
         <v>6800</v>
       </c>
       <c r="AB48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="AC48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3774,7 +3884,7 @@
         <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>800</v>
@@ -3807,7 +3917,7 @@
         <v>800</v>
       </c>
       <c r="R49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S49" s="3">
         <v>900</v>
@@ -3825,7 +3935,7 @@
         <v>900</v>
       </c>
       <c r="X49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y49" s="3">
         <v>1000</v>
@@ -3840,10 +3950,13 @@
         <v>1000</v>
       </c>
       <c r="AC49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,28 +4124,31 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1800</v>
       </c>
       <c r="H52" s="3">
         <v>1800</v>
       </c>
       <c r="I52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
@@ -4038,19 +4157,19 @@
         <v>1700</v>
       </c>
       <c r="L52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1800</v>
       </c>
       <c r="Q52" s="3">
         <v>1800</v>
@@ -4059,40 +4178,43 @@
         <v>1800</v>
       </c>
       <c r="S52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1900</v>
       </c>
       <c r="W52" s="3">
         <v>1900</v>
       </c>
       <c r="X52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>357800</v>
+      </c>
+      <c r="E54" s="3">
         <v>359200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>343300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>348800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>342500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>343200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>330500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>323400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>307600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>310600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>312200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>307100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>304200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>301600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>289500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>292800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>277700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>273800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>268000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>255400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>245700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>239000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>236400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>230200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>276100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4328,7 +4458,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -4340,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4358,7 +4488,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4402,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4568,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,13 +4790,16 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E66" s="3">
         <v>316100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>298300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>301700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>294500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>294400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>281700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>274800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>258400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>261700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>262600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>258300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>249800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>253900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>251000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>236600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>240000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>225100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>221400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>215500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>202300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>191700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>185400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>183300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>177400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>243700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21600</v>
+        <v>21900</v>
       </c>
       <c r="E72" s="3">
         <v>21600</v>
       </c>
       <c r="F72" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G72" s="3">
         <v>21100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>17700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>17500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>17200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E76" s="3">
         <v>43100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52600</v>
-      </c>
-      <c r="U76" s="3">
-        <v>52500</v>
       </c>
       <c r="V76" s="3">
         <v>52500</v>
       </c>
       <c r="W76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="X76" s="3">
         <v>53100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>54000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>53700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>53100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>52700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>32400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,122 +6198,128 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>800</v>
       </c>
       <c r="H81" s="3">
         <v>800</v>
       </c>
       <c r="I81" s="3">
+        <v>800</v>
+      </c>
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>800</v>
       </c>
       <c r="L81" s="3">
         <v>800</v>
@@ -6134,55 +6328,58 @@
         <v>800</v>
       </c>
       <c r="N81" s="3">
+        <v>800</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>400</v>
       </c>
       <c r="R81" s="3">
         <v>400</v>
       </c>
       <c r="S81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T81" s="3">
         <v>600</v>
       </c>
       <c r="U81" s="3">
+        <v>600</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
-      </c>
-      <c r="X81" s="3">
-        <v>500</v>
       </c>
       <c r="Y81" s="3">
         <v>500</v>
       </c>
       <c r="Z81" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>200</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>400</v>
       </c>
       <c r="AC81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6268,11 +6466,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6766,35 +6982,38 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6880,11 +7100,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7129,35 +7358,38 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-13700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>45300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-57500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7250,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>-100</v>
@@ -7262,7 +7495,7 @@
         <v>-100</v>
       </c>
       <c r="AA96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB96" s="3">
         <v>0</v>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7575,35 +7820,38 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>12100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>9500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>5400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-46300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>59600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7741,31 +7992,34 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,43 +796,43 @@
         <v>3600</v>
       </c>
       <c r="E8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="3">
         <v>9600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3200</v>
       </c>
       <c r="J8" s="3">
         <v>3200</v>
       </c>
       <c r="K8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3100</v>
       </c>
       <c r="R8" s="3">
         <v>3100</v>
@@ -837,31 +841,31 @@
         <v>3100</v>
       </c>
       <c r="T8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U8" s="3">
         <v>3000</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2800</v>
       </c>
       <c r="V8" s="3">
         <v>2800</v>
       </c>
       <c r="W8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="X8" s="3">
         <v>2600</v>
       </c>
       <c r="Y8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="Z8" s="3">
         <v>2400</v>
       </c>
       <c r="AA8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AB8" s="3">
         <v>2300</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>2100</v>
       </c>
       <c r="AC8" s="3">
         <v>2100</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,22 +1482,22 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1479,61 +1506,64 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>900</v>
       </c>
       <c r="R17" s="3">
         <v>900</v>
       </c>
       <c r="S17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>800</v>
       </c>
       <c r="U17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,40 +1571,40 @@
         <v>2400</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2800</v>
       </c>
       <c r="I18" s="3">
         <v>2800</v>
       </c>
       <c r="J18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2200</v>
       </c>
       <c r="Q18" s="3">
         <v>2200</v>
@@ -1583,10 +1613,10 @@
         <v>2200</v>
       </c>
       <c r="S18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T18" s="3">
         <v>2300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2200</v>
       </c>
       <c r="U18" s="3">
         <v>2200</v>
@@ -1595,31 +1625,34 @@
         <v>2200</v>
       </c>
       <c r="W18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X18" s="3">
         <v>2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1900</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>2000</v>
       </c>
       <c r="AA18" s="3">
         <v>2000</v>
       </c>
       <c r="AB18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,94 +1683,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1700</v>
       </c>
       <c r="J20" s="3">
         <v>-1700</v>
       </c>
       <c r="K20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q20" s="3">
         <v>-1400</v>
       </c>
       <c r="R20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-1500</v>
       </c>
       <c r="AB20" s="3">
         <v>-1500</v>
       </c>
       <c r="AC20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="AD20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1798,32 +1835,35 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>700</v>
       </c>
       <c r="Z21" s="3">
         <v>700</v>
       </c>
       <c r="AA21" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB21" s="3">
         <v>600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1200</v>
       </c>
       <c r="H23" s="3">
         <v>1200</v>
       </c>
       <c r="I23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1100</v>
       </c>
       <c r="N23" s="3">
         <v>1100</v>
       </c>
       <c r="O23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>600</v>
       </c>
       <c r="S23" s="3">
         <v>600</v>
       </c>
       <c r="T23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="U23" s="3">
         <v>800</v>
       </c>
       <c r="V23" s="3">
+        <v>800</v>
+      </c>
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>500</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>600</v>
       </c>
       <c r="Z23" s="3">
         <v>600</v>
       </c>
       <c r="AA23" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB23" s="3">
         <v>500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>300</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>600</v>
       </c>
       <c r="AD23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,49 +2049,49 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
@@ -2054,16 +2100,16 @@
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
@@ -2072,16 +2118,19 @@
         <v>200</v>
       </c>
       <c r="AB24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC24" s="3">
         <v>100</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>200</v>
       </c>
       <c r="AD24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,37 +2215,40 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>800</v>
       </c>
       <c r="I26" s="3">
         <v>800</v>
       </c>
       <c r="J26" s="3">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>800</v>
       </c>
       <c r="M26" s="3">
         <v>800</v>
@@ -2205,84 +2257,87 @@
         <v>800</v>
       </c>
       <c r="O26" s="3">
+        <v>800</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>400</v>
       </c>
       <c r="S26" s="3">
         <v>400</v>
       </c>
       <c r="T26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U26" s="3">
         <v>600</v>
       </c>
       <c r="V26" s="3">
+        <v>600</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>500</v>
       </c>
       <c r="Z26" s="3">
         <v>500</v>
       </c>
       <c r="AA26" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB26" s="3">
         <v>400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>200</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>400</v>
       </c>
       <c r="AD26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>800</v>
       </c>
       <c r="I27" s="3">
         <v>800</v>
       </c>
       <c r="J27" s="3">
+        <v>800</v>
+      </c>
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>800</v>
       </c>
       <c r="M27" s="3">
         <v>800</v>
@@ -2291,55 +2346,58 @@
         <v>800</v>
       </c>
       <c r="O27" s="3">
+        <v>800</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>400</v>
       </c>
       <c r="S27" s="3">
         <v>400</v>
       </c>
       <c r="T27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U27" s="3">
         <v>600</v>
       </c>
       <c r="V27" s="3">
+        <v>600</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>500</v>
       </c>
       <c r="Z27" s="3">
         <v>500</v>
       </c>
       <c r="AA27" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB27" s="3">
         <v>400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>200</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>400</v>
       </c>
       <c r="AD27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,123 +2749,129 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1700</v>
       </c>
       <c r="J32" s="3">
         <v>1700</v>
       </c>
       <c r="K32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1400</v>
       </c>
       <c r="Q32" s="3">
         <v>1400</v>
       </c>
       <c r="R32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>1500</v>
       </c>
       <c r="AB32" s="3">
         <v>1500</v>
       </c>
       <c r="AC32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="AD32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>800</v>
       </c>
       <c r="I33" s="3">
         <v>800</v>
       </c>
       <c r="J33" s="3">
+        <v>800</v>
+      </c>
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>800</v>
       </c>
       <c r="M33" s="3">
         <v>800</v>
@@ -2807,55 +2880,58 @@
         <v>800</v>
       </c>
       <c r="O33" s="3">
+        <v>800</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>400</v>
       </c>
       <c r="S33" s="3">
         <v>400</v>
       </c>
       <c r="T33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U33" s="3">
         <v>600</v>
       </c>
       <c r="V33" s="3">
+        <v>600</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>500</v>
       </c>
       <c r="Z33" s="3">
         <v>500</v>
       </c>
       <c r="AA33" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB33" s="3">
         <v>400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>200</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>400</v>
       </c>
       <c r="AD33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,37 +3016,40 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>800</v>
       </c>
       <c r="I35" s="3">
         <v>800</v>
       </c>
       <c r="J35" s="3">
+        <v>800</v>
+      </c>
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>800</v>
       </c>
       <c r="M35" s="3">
         <v>800</v>
@@ -2979,146 +3058,152 @@
         <v>800</v>
       </c>
       <c r="O35" s="3">
+        <v>800</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>400</v>
       </c>
       <c r="S35" s="3">
         <v>400</v>
       </c>
       <c r="T35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U35" s="3">
         <v>600</v>
       </c>
       <c r="V35" s="3">
+        <v>600</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>500</v>
       </c>
       <c r="Z35" s="3">
         <v>500</v>
       </c>
       <c r="AA35" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB35" s="3">
         <v>400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>200</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>400</v>
       </c>
       <c r="AD35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,180 +3267,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>4500</v>
       </c>
       <c r="S41" s="3">
         <v>4500</v>
       </c>
       <c r="T41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>18700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>55900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
         <v>6200</v>
@@ -3798,16 +3906,16 @@
         <v>6200</v>
       </c>
       <c r="G48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H48" s="3">
         <v>6300</v>
       </c>
       <c r="I48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J48" s="3">
         <v>6400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6300</v>
       </c>
       <c r="K48" s="3">
         <v>6300</v>
@@ -3816,7 +3924,7 @@
         <v>6300</v>
       </c>
       <c r="M48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="N48" s="3">
         <v>6400</v>
@@ -3825,19 +3933,19 @@
         <v>6400</v>
       </c>
       <c r="P48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>6600</v>
       </c>
       <c r="R48" s="3">
         <v>6600</v>
       </c>
       <c r="S48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="T48" s="3">
         <v>6700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>6600</v>
       </c>
       <c r="U48" s="3">
         <v>6600</v>
@@ -3849,13 +3957,13 @@
         <v>6600</v>
       </c>
       <c r="X48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="Y48" s="3">
         <v>6700</v>
       </c>
       <c r="Z48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="AA48" s="3">
         <v>6800</v>
@@ -3864,13 +3972,16 @@
         <v>6800</v>
       </c>
       <c r="AC48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="AD48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +3998,7 @@
         <v>700</v>
       </c>
       <c r="H49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I49" s="3">
         <v>800</v>
@@ -3920,7 +4031,7 @@
         <v>800</v>
       </c>
       <c r="S49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T49" s="3">
         <v>900</v>
@@ -3938,7 +4049,7 @@
         <v>900</v>
       </c>
       <c r="Y49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z49" s="3">
         <v>1000</v>
@@ -3953,10 +4064,13 @@
         <v>1000</v>
       </c>
       <c r="AD49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,31 +4244,34 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1800</v>
       </c>
       <c r="I52" s="3">
         <v>1800</v>
       </c>
       <c r="J52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
@@ -4160,19 +4280,19 @@
         <v>1700</v>
       </c>
       <c r="M52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1800</v>
       </c>
       <c r="R52" s="3">
         <v>1800</v>
@@ -4181,40 +4301,43 @@
         <v>1800</v>
       </c>
       <c r="T52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1900</v>
       </c>
       <c r="X52" s="3">
         <v>1900</v>
       </c>
       <c r="Y52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>369100</v>
+      </c>
+      <c r="E54" s="3">
         <v>357800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>359200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>343300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>348800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>342500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>343200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>330500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>323400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>307600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>310600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>312200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>307100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>304200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>301600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>289500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>292800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>277700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>273800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>268000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>255400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>245700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>239000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>236400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>230200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>276100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,19 +4579,20 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -4473,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4491,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4802,7 +4945,7 @@
         <v>2100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>326100</v>
+      </c>
+      <c r="E66" s="3">
         <v>314600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>316100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>298300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>301700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>294500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>294400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>281700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>274800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>258400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>261700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>262600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>258300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>249800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>253900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>251000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>236600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>240000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>225100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>221400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>215500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>202300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>191700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>185400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>183300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>177400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>243700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E72" s="3">
         <v>21900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>21600</v>
       </c>
       <c r="F72" s="3">
         <v>21600</v>
       </c>
       <c r="G72" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H72" s="3">
         <v>21100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>17700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>17500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>17200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E76" s="3">
         <v>43300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52600</v>
-      </c>
-      <c r="V76" s="3">
-        <v>52500</v>
       </c>
       <c r="W76" s="3">
         <v>52500</v>
       </c>
       <c r="X76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="Y76" s="3">
         <v>53100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>54000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>53700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>53100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>52700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>32400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,128 +6390,134 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>800</v>
       </c>
       <c r="I81" s="3">
         <v>800</v>
       </c>
       <c r="J81" s="3">
+        <v>800</v>
+      </c>
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>800</v>
       </c>
       <c r="M81" s="3">
         <v>800</v>
@@ -6331,55 +6526,58 @@
         <v>800</v>
       </c>
       <c r="O81" s="3">
+        <v>800</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>400</v>
       </c>
       <c r="S81" s="3">
         <v>400</v>
       </c>
       <c r="T81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U81" s="3">
         <v>600</v>
       </c>
       <c r="V81" s="3">
+        <v>600</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>500</v>
       </c>
       <c r="Z81" s="3">
         <v>500</v>
       </c>
       <c r="AA81" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB81" s="3">
         <v>400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>200</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>400</v>
       </c>
       <c r="AD81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6469,11 +6668,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
-        <v>100</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6985,35 +7202,38 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7103,11 +7324,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7361,35 +7591,38 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-13700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>45300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-57500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7486,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>-100</v>
@@ -7498,7 +7732,7 @@
         <v>-100</v>
       </c>
       <c r="AB96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC96" s="3">
         <v>0</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7823,35 +8069,38 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>12100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>9500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-46300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>59600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7995,31 +8247,34 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>OTTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,181 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E8" s="3">
         <v>3600</v>
       </c>
       <c r="F8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3200</v>
       </c>
       <c r="K8" s="3">
         <v>3200</v>
       </c>
       <c r="L8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3100</v>
       </c>
       <c r="S8" s="3">
         <v>3100</v>
@@ -844,31 +848,31 @@
         <v>3100</v>
       </c>
       <c r="U8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V8" s="3">
         <v>3000</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2800</v>
       </c>
       <c r="W8" s="3">
         <v>2800</v>
       </c>
       <c r="X8" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Y8" s="3">
         <v>2600</v>
       </c>
       <c r="Z8" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="AA8" s="3">
         <v>2400</v>
       </c>
       <c r="AB8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AC8" s="3">
         <v>2300</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>2100</v>
       </c>
       <c r="AD8" s="3">
         <v>2100</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,34 +1499,35 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1509,105 +1536,108 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>900</v>
       </c>
       <c r="S17" s="3">
         <v>900</v>
       </c>
       <c r="T17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
       </c>
       <c r="V17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E18" s="3">
         <v>2400</v>
       </c>
       <c r="F18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G18" s="3">
         <v>7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2800</v>
       </c>
       <c r="J18" s="3">
         <v>2800</v>
       </c>
       <c r="K18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2200</v>
       </c>
       <c r="R18" s="3">
         <v>2200</v>
@@ -1616,10 +1646,10 @@
         <v>2200</v>
       </c>
       <c r="T18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U18" s="3">
         <v>2300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>2200</v>
       </c>
       <c r="V18" s="3">
         <v>2200</v>
@@ -1628,31 +1658,34 @@
         <v>2200</v>
       </c>
       <c r="X18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>2000</v>
       </c>
       <c r="AB18" s="3">
         <v>2000</v>
       </c>
       <c r="AC18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD18" s="3">
         <v>1700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,88 +1727,91 @@
         <v>-1700</v>
       </c>
       <c r="E20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1700</v>
       </c>
       <c r="K20" s="3">
         <v>-1700</v>
       </c>
       <c r="L20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1400</v>
       </c>
       <c r="R20" s="3">
         <v>-1400</v>
       </c>
       <c r="S20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-1500</v>
       </c>
       <c r="AC20" s="3">
         <v>-1500</v>
       </c>
       <c r="AD20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="AE20" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1838,32 +1875,35 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>700</v>
       </c>
       <c r="AA21" s="3">
         <v>700</v>
       </c>
       <c r="AB21" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC21" s="3">
         <v>600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1200</v>
       </c>
       <c r="I23" s="3">
         <v>1200</v>
       </c>
       <c r="J23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1100</v>
       </c>
       <c r="O23" s="3">
         <v>1100</v>
       </c>
       <c r="P23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>600</v>
       </c>
       <c r="T23" s="3">
         <v>600</v>
       </c>
       <c r="U23" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="V23" s="3">
         <v>800</v>
       </c>
       <c r="W23" s="3">
+        <v>800</v>
+      </c>
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>500</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>600</v>
       </c>
       <c r="AA23" s="3">
         <v>600</v>
       </c>
       <c r="AB23" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC23" s="3">
         <v>500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>300</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>600</v>
       </c>
       <c r="AE23" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2052,49 +2098,49 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
@@ -2103,16 +2149,16 @@
         <v>200</v>
       </c>
       <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>200</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
@@ -2121,16 +2167,19 @@
         <v>200</v>
       </c>
       <c r="AC24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD24" s="3">
         <v>100</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>200</v>
       </c>
       <c r="AE24" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,40 +2267,43 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>800</v>
       </c>
       <c r="J26" s="3">
         <v>800</v>
       </c>
       <c r="K26" s="3">
+        <v>800</v>
+      </c>
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>800</v>
       </c>
       <c r="N26" s="3">
         <v>800</v>
@@ -2260,87 +2312,90 @@
         <v>800</v>
       </c>
       <c r="P26" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>400</v>
       </c>
       <c r="T26" s="3">
         <v>400</v>
       </c>
       <c r="U26" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V26" s="3">
         <v>600</v>
       </c>
       <c r="W26" s="3">
+        <v>600</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>500</v>
       </c>
       <c r="AA26" s="3">
         <v>500</v>
       </c>
       <c r="AB26" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC26" s="3">
         <v>400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>200</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>400</v>
       </c>
       <c r="AE26" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>800</v>
       </c>
       <c r="J27" s="3">
         <v>800</v>
       </c>
       <c r="K27" s="3">
+        <v>800</v>
+      </c>
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>800</v>
       </c>
       <c r="N27" s="3">
         <v>800</v>
@@ -2349,55 +2404,58 @@
         <v>800</v>
       </c>
       <c r="P27" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>400</v>
       </c>
       <c r="T27" s="3">
         <v>400</v>
       </c>
       <c r="U27" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V27" s="3">
         <v>600</v>
       </c>
       <c r="W27" s="3">
+        <v>600</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>500</v>
       </c>
       <c r="AA27" s="3">
         <v>500</v>
       </c>
       <c r="AB27" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC27" s="3">
         <v>400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>200</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>400</v>
       </c>
       <c r="AE27" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,120 +2831,123 @@
         <v>1700</v>
       </c>
       <c r="E32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1700</v>
       </c>
       <c r="K32" s="3">
         <v>1700</v>
       </c>
       <c r="L32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1400</v>
       </c>
       <c r="R32" s="3">
         <v>1400</v>
       </c>
       <c r="S32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1400</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>1500</v>
       </c>
       <c r="AC32" s="3">
         <v>1500</v>
       </c>
       <c r="AD32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="AE32" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>800</v>
       </c>
       <c r="J33" s="3">
         <v>800</v>
       </c>
       <c r="K33" s="3">
+        <v>800</v>
+      </c>
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>800</v>
       </c>
       <c r="N33" s="3">
         <v>800</v>
@@ -2883,55 +2956,58 @@
         <v>800</v>
       </c>
       <c r="P33" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>400</v>
       </c>
       <c r="T33" s="3">
         <v>400</v>
       </c>
       <c r="U33" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V33" s="3">
         <v>600</v>
       </c>
       <c r="W33" s="3">
+        <v>600</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>500</v>
       </c>
       <c r="AA33" s="3">
         <v>500</v>
       </c>
       <c r="AB33" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>200</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>400</v>
       </c>
       <c r="AE33" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,40 +3095,43 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>800</v>
       </c>
       <c r="J35" s="3">
         <v>800</v>
       </c>
       <c r="K35" s="3">
+        <v>800</v>
+      </c>
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>800</v>
       </c>
       <c r="N35" s="3">
         <v>800</v>
@@ -3061,149 +3140,155 @@
         <v>800</v>
       </c>
       <c r="P35" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>400</v>
       </c>
       <c r="T35" s="3">
         <v>400</v>
       </c>
       <c r="U35" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V35" s="3">
         <v>600</v>
       </c>
       <c r="W35" s="3">
+        <v>600</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>500</v>
       </c>
       <c r="AA35" s="3">
         <v>500</v>
       </c>
       <c r="AB35" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>200</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>400</v>
       </c>
       <c r="AE35" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,186 +3354,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>12000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>4500</v>
       </c>
       <c r="T41" s="3">
         <v>4500</v>
       </c>
       <c r="U41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E42" s="3">
         <v>2100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>18700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>4000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>55900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +4008,7 @@
         <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F48" s="3">
         <v>6200</v>
@@ -3909,16 +4017,16 @@
         <v>6200</v>
       </c>
       <c r="H48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I48" s="3">
         <v>6300</v>
       </c>
       <c r="J48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6300</v>
       </c>
       <c r="L48" s="3">
         <v>6300</v>
@@ -3927,7 +4035,7 @@
         <v>6300</v>
       </c>
       <c r="N48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="O48" s="3">
         <v>6400</v>
@@ -3936,19 +4044,19 @@
         <v>6400</v>
       </c>
       <c r="Q48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R48" s="3">
         <v>6500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>6600</v>
       </c>
       <c r="S48" s="3">
         <v>6600</v>
       </c>
       <c r="T48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="U48" s="3">
         <v>6700</v>
-      </c>
-      <c r="U48" s="3">
-        <v>6600</v>
       </c>
       <c r="V48" s="3">
         <v>6600</v>
@@ -3960,13 +4068,13 @@
         <v>6600</v>
       </c>
       <c r="Y48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="Z48" s="3">
         <v>6700</v>
       </c>
       <c r="AA48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="AB48" s="3">
         <v>6800</v>
@@ -3975,13 +4083,16 @@
         <v>6800</v>
       </c>
       <c r="AD48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="AE48" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4001,7 +4112,7 @@
         <v>700</v>
       </c>
       <c r="I49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>800</v>
@@ -4034,7 +4145,7 @@
         <v>800</v>
       </c>
       <c r="T49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="U49" s="3">
         <v>900</v>
@@ -4052,7 +4163,7 @@
         <v>900</v>
       </c>
       <c r="Z49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AA49" s="3">
         <v>1000</v>
@@ -4067,10 +4178,13 @@
         <v>1000</v>
       </c>
       <c r="AE49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF49" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,34 +4364,37 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>1800</v>
       </c>
       <c r="K52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L52" s="3">
         <v>1700</v>
@@ -4283,19 +4403,19 @@
         <v>1700</v>
       </c>
       <c r="N52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1800</v>
       </c>
       <c r="S52" s="3">
         <v>1800</v>
@@ -4304,40 +4424,43 @@
         <v>1800</v>
       </c>
       <c r="U52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>1900</v>
       </c>
       <c r="Y52" s="3">
         <v>1900</v>
       </c>
       <c r="Z52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>366800</v>
+      </c>
+      <c r="E54" s="3">
         <v>369100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>357800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>359200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>343300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>348800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>342500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>343200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>330500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>323400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>307600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>310600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>312200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>307100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>304200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>301600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>289500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>292800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>277700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>273800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>268000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>255400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>245700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>239000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>236400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>230200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>276100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>216700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,22 +4710,23 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -4607,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4625,7 +4756,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,19 +5076,22 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
         <v>2100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>323800</v>
+      </c>
+      <c r="E66" s="3">
         <v>326100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>314600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>316100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>298300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>301700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>294500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>294400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>281700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>274800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>258400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>261700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>262600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>258300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>249800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>253900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>251000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>236600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>240000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>225100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>221400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>215500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>202300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>191700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>185400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>183300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>177400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>243700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>184700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E72" s="3">
         <v>21500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>21600</v>
       </c>
       <c r="G72" s="3">
         <v>21600</v>
       </c>
       <c r="H72" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I72" s="3">
         <v>21100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>17700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>18000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>17700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>17500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>17200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E76" s="3">
         <v>43000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>52600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>52500</v>
       </c>
       <c r="X76" s="3">
         <v>52500</v>
       </c>
       <c r="Y76" s="3">
+        <v>52500</v>
+      </c>
+      <c r="Z76" s="3">
         <v>53100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>54000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>53700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>53100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>52700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>32400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,134 +6582,140 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>800</v>
       </c>
       <c r="J81" s="3">
         <v>800</v>
       </c>
       <c r="K81" s="3">
+        <v>800</v>
+      </c>
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>800</v>
       </c>
       <c r="N81" s="3">
         <v>800</v>
@@ -6529,55 +6724,58 @@
         <v>800</v>
       </c>
       <c r="P81" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>400</v>
       </c>
       <c r="T81" s="3">
         <v>400</v>
       </c>
       <c r="U81" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V81" s="3">
         <v>600</v>
       </c>
       <c r="W81" s="3">
+        <v>600</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>500</v>
       </c>
       <c r="AA81" s="3">
         <v>500</v>
       </c>
       <c r="AB81" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>200</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>400</v>
       </c>
       <c r="AE81" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6671,11 +6870,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
-        <v>100</v>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7205,35 +7422,38 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7327,11 +7548,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7594,35 +7824,38 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>45300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-57500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7723,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-100</v>
@@ -7735,7 +7969,7 @@
         <v>-100</v>
       </c>
       <c r="AC96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD96" s="3">
         <v>0</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8072,35 +8318,38 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>12100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>9500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>5400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-46300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>59600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8250,31 +8502,34 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1600</v>
       </c>
     </row>
